--- a/data/hotels_by_city/Houston/Houston_shard_594.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_594.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="816">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56577-d1485920-Reviews-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Rosenberg-Hotels-SpringHill-Suites-By-Marriott-HoustonRosenberg.h2680828.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2390 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r591952214-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>1485920</t>
+  </si>
+  <si>
+    <t>591952214</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Great Stay Great Service</t>
+  </si>
+  <si>
+    <t>This hotel is great we never have any issues! Melanie always accommodates an early checkin for me and Mrs. G in breakfast always has breakfast hot and ready. This hotel really does go above and beyond for their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is great we never have any issues! Melanie always accommodates an early checkin for me and Mrs. G in breakfast always has breakfast hot and ready. This hotel really does go above and beyond for their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r591907615-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>591907615</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 nights and I must say the staff is very friendly and helpful. The breakfast was provided on time and staff was always available when you needed them. The area is quite and safe. I would definitely recommend this hotel to any of my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 nights and I must say the staff is very friendly and helpful. The breakfast was provided on time and staff was always available when you needed them. The area is quite and safe. I would definitely recommend this hotel to any of my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r591780344-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>591780344</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Very sad but avoidable situation</t>
+  </si>
+  <si>
+    <t>I made reservations for my mom, who has been a paraplegic for 50 years and is in constant pain, to stay at this hotel. I talked directly to the hotel's front desk, letting them know she needed a handicapped accessible room and would have her service dog with her. They said no problem and were very pleasant. Today when we arrived at the hotel, Melanie asked for papers proving my mom's dog is a service dog. My mom has stayed at this hotel before with her service dog and never had to show anyone paperwork, but Melanie informed me that it is hotel policy. She is as not the least bit concerned about us and did not care that we could have been prepared had we been told, but now found ourselves in a bad position because we were not told. I called Marriott, and after 20+ minutes of my mom and the dog waiting in the car in the heat (because it is too painful for her to get out of the car not knowing if she even has a room)Melanie informed us that she could stay, but the hotel would be taking a $150 deposit. Again, zero empathy. I'm extremely disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>I made reservations for my mom, who has been a paraplegic for 50 years and is in constant pain, to stay at this hotel. I talked directly to the hotel's front desk, letting them know she needed a handicapped accessible room and would have her service dog with her. They said no problem and were very pleasant. Today when we arrived at the hotel, Melanie asked for papers proving my mom's dog is a service dog. My mom has stayed at this hotel before with her service dog and never had to show anyone paperwork, but Melanie informed me that it is hotel policy. She is as not the least bit concerned about us and did not care that we could have been prepared had we been told, but now found ourselves in a bad position because we were not told. I called Marriott, and after 20+ minutes of my mom and the dog waiting in the car in the heat (because it is too painful for her to get out of the car not knowing if she even has a room)Melanie informed us that she could stay, but the hotel would be taking a $150 deposit. Again, zero empathy. I'm extremely disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r565284344-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>565284344</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>A/C issues, room was hot, phones not working, requested for a fan, promised discount never happened</t>
+  </si>
+  <si>
+    <t>First, room was clean, beds were comfy Marriott-standard of course.... 
+But,  the room was hot,  yes, good-looking "hot" but  more so on the temperature hot.....  The A/C was working somewhat but never really reached a cool temperature and it shut off every so often for a long time there was a jubilation when it turned on again... We waited for 3 hours and gave it a chance.   
+Around 7:30 when the temperature was really a misery, I ran to the room phones to reach  front desk but  both phones were dead.. I called using my mobile phone and reported the issues and  front desk lady  said she'd have someone come up.  No one did after 1.5+ hours when we're ready to go to bed and really tired. 
+Husband went down and front desk finally sent someone up immediately.  That maintenance guy was very nice but mentioned there wasn't anything to be done with the A/C and called front-desk if there was any other free room  we could move in. No one remembers about the 2 phones not working but it didn't matter now.   
+"No", the lady front desk said. "No extra room for switching sorry" . I asked the maintenance guy to bring a FAN in case they have any. He did shortly. I had to bring down the fan again to the front-desk because it was breaded with dust and when we turned it on, we had a sneeze-concert....First, room was clean, beds were comfy Marriott-standard of course.... But,  the room was hot,  yes, good-looking "hot" but  more so on the temperature hot.....  The A/C was working somewhat but never really reached a cool temperature and it shut off every so often for a long time there was a jubilation when it turned on again... We waited for 3 hours and gave it a chance.   Around 7:30 when the temperature was really a misery, I ran to the room phones to reach  front desk but  both phones were dead.. I called using my mobile phone and reported the issues and  front desk lady  said she'd have someone come up.  No one did after 1.5+ hours when we're ready to go to bed and really tired. Husband went down and front desk finally sent someone up immediately.  That maintenance guy was very nice but mentioned there wasn't anything to be done with the A/C and called front-desk if there was any other free room  we could move in. No one remembers about the 2 phones not working but it didn't matter now.   "No", the lady front desk said. "No extra room for switching sorry" . I asked the maintenance guy to bring a FAN in case they have any. He did shortly. I had to bring down the fan again to the front-desk because it was breaded with dust and when we turned it on, we had a sneeze-concert.  The front-desk lady was apologetic and said he'd make a note to give us a discount for this inconvenient stay. I was gracious and would be happy with anything and said thanks. (I really just wanna sleep I was very tired).  Maintenance guy had the fan cleaned and we slept thru the night using fan :)  During check-out, I inquired about that discount note to the gentleman in front desk and told him we were on points and he confirmed it was there but since I was on points he would just have points added back... so now 6 days later I visited my Marriott rewards account and there was no  points added back.So that was it ... it's fine.. not a good experience... not a total disaster  at least we didn't sleep on the street... maybe I deserved this weird experience of using a fan in a hotel because I was a points user for that 1-night booking :)  And yes, maybe i'm not really getting any points back as promised because I don't deserve it also , even if they said they would... would I go back to this hotel? hmmm, not sure.  Would I still book on other Marriotts? Oh yes!!! Still a great brand... the best for me still....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>First, room was clean, beds were comfy Marriott-standard of course.... 
+But,  the room was hot,  yes, good-looking "hot" but  more so on the temperature hot.....  The A/C was working somewhat but never really reached a cool temperature and it shut off every so often for a long time there was a jubilation when it turned on again... We waited for 3 hours and gave it a chance.   
+Around 7:30 when the temperature was really a misery, I ran to the room phones to reach  front desk but  both phones were dead.. I called using my mobile phone and reported the issues and  front desk lady  said she'd have someone come up.  No one did after 1.5+ hours when we're ready to go to bed and really tired. 
+Husband went down and front desk finally sent someone up immediately.  That maintenance guy was very nice but mentioned there wasn't anything to be done with the A/C and called front-desk if there was any other free room  we could move in. No one remembers about the 2 phones not working but it didn't matter now.   
+"No", the lady front desk said. "No extra room for switching sorry" . I asked the maintenance guy to bring a FAN in case they have any. He did shortly. I had to bring down the fan again to the front-desk because it was breaded with dust and when we turned it on, we had a sneeze-concert....First, room was clean, beds were comfy Marriott-standard of course.... But,  the room was hot,  yes, good-looking "hot" but  more so on the temperature hot.....  The A/C was working somewhat but never really reached a cool temperature and it shut off every so often for a long time there was a jubilation when it turned on again... We waited for 3 hours and gave it a chance.   Around 7:30 when the temperature was really a misery, I ran to the room phones to reach  front desk but  both phones were dead.. I called using my mobile phone and reported the issues and  front desk lady  said she'd have someone come up.  No one did after 1.5+ hours when we're ready to go to bed and really tired. Husband went down and front desk finally sent someone up immediately.  That maintenance guy was very nice but mentioned there wasn't anything to be done with the A/C and called front-desk if there was any other free room  we could move in. No one remembers about the 2 phones not working but it didn't matter now.   "No", the lady front desk said. "No extra room for switching sorry" . I asked the maintenance guy to bring a FAN in case they have any. He did shortly. I had to bring down the fan again to the front-desk because it was breaded with dust and when we turned it on, we had a sneeze-concert.  The front-desk lady was apologetic and said he'd make a note to give us a discount for this inconvenient stay. I was gracious and would be happy with anything and said thanks. (I really just wanna sleep I was very tired).  Maintenance guy had the fan cleaned and we slept thru the night using fan :)  During check-out, I inquired about that discount note to the gentleman in front desk and told him we were on points and he confirmed it was there but since I was on points he would just have points added back... so now 6 days later I visited my Marriott rewards account and there was no  points added back.So that was it ... it's fine.. not a good experience... not a total disaster  at least we didn't sleep on the street... maybe I deserved this weird experience of using a fan in a hotel because I was a points user for that 1-night booking :)  And yes, maybe i'm not really getting any points back as promised because I don't deserve it also , even if they said they would... would I go back to this hotel? hmmm, not sure.  Would I still book on other Marriotts? Oh yes!!! Still a great brand... the best for me still....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r556543833-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>556543833</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Wonderful front desk staff, accomodating and understanding</t>
+  </si>
+  <si>
+    <t>We were caught in mid January by an ice storm and needed to stay an additional night.  Eric at the front desk was gracious enough to rebook our extra nights stay at a hotel closer to the airport.   He advised us not to attempt to catch the first flight out after the ice storm being located so far from the Hobby Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>We were caught in mid January by an ice storm and needed to stay an additional night.  Eric at the front desk was gracious enough to rebook our extra nights stay at a hotel closer to the airport.   He advised us not to attempt to catch the first flight out after the ice storm being located so far from the Hobby Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r551648563-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>551648563</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>12 Days</t>
+  </si>
+  <si>
+    <t>This was a very pleasant stay! We stayed almost 2 weeks. Dec.23rd 2017-Jan3rd 2018. The room was clean &amp; fresh the entire stay! Lots of space &amp; seating. Breakfast was served everyday &amp; coffe everyday all day. The staff we encountered were friendly and helpful! It's located in a great neighborhood with plenty of shopping and food in walking distance. Or a minute or two to the freeway. The only problem we had was the tv. It was showing green and purple blocks on the right side of the screen. Also a lot of freezing and turning gray... The bed headlights didnt work on either side of the bed. But that wasn't a issue. Then I noticed little black ants in the bathroom everyday. All over the sink... But overall this is a very nice Springhill!!! We'll definitely be back to stay here!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>This was a very pleasant stay! We stayed almost 2 weeks. Dec.23rd 2017-Jan3rd 2018. The room was clean &amp; fresh the entire stay! Lots of space &amp; seating. Breakfast was served everyday &amp; coffe everyday all day. The staff we encountered were friendly and helpful! It's located in a great neighborhood with plenty of shopping and food in walking distance. Or a minute or two to the freeway. The only problem we had was the tv. It was showing green and purple blocks on the right side of the screen. Also a lot of freezing and turning gray... The bed headlights didnt work on either side of the bed. But that wasn't a issue. Then I noticed little black ants in the bathroom everyday. All over the sink... But overall this is a very nice Springhill!!! We'll definitely be back to stay here!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r544207826-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>544207826</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Springhill Suite </t>
+  </si>
+  <si>
+    <t>Not much to tell other than this hotel is clean and well maintained. Room was neat  - clean and smelled like a room should. Air handler was noisy when starting up sounded like a plane taking off. Rooms on even side pick up road noiseMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Not much to tell other than this hotel is clean and well maintained. Room was neat  - clean and smelled like a room should. Air handler was noisy when starting up sounded like a plane taking off. Rooms on even side pick up road noiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r543319458-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>543319458</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The front desk personnel were efficient, friendly and helpful at all times.Every hotel employee we encountered had a smile and a welcome.The suite was definitely clean and shiny and had space wherewe could easily move around.  Coffee was always available &amp;there were many choices, hot and/or cold, for breakfast.The location was perfect for our needs &amp; shops within walking distance.We have always had a good experience with our stays at Springhill Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>The front desk personnel were efficient, friendly and helpful at all times.Every hotel employee we encountered had a smile and a welcome.The suite was definitely clean and shiny and had space wherewe could easily move around.  Coffee was always available &amp;there were many choices, hot and/or cold, for breakfast.The location was perfect for our needs &amp; shops within walking distance.We have always had a good experience with our stays at Springhill Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r542077859-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>542077859</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay while visiting family</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean, the rooms were very comfortable rooms, and the staff was friendly and helpful! They helped us set up our rooms so that we would be next to our teenage daughters and also next to my sister and nieces and were kind when doing so even though we let them know at the last minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean, the rooms were very comfortable rooms, and the staff was friendly and helpful! They helped us set up our rooms so that we would be next to our teenage daughters and also next to my sister and nieces and were kind when doing so even though we let them know at the last minute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r521191548-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>521191548</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Review </t>
+  </si>
+  <si>
+    <t>We stayed August 29-September 1, 2017, due to a Hurricane Harvey mandatory evacuation. All of the hotel staff were patience and kind to everyone during a stressful time.Our room was comfortable and spacious. There was a dorm size refrigerator and microwave.The breakfast selection was plentiful. On the second morning of our stay, there was fresh fruit of melon and strawberries which were very flavorful.Facility was kept clean.Normally I would rate this hotel as average because several lamps in the room were not working and there was mildew in the shower (which notified staff of when we checked out). The respectful staff earned the extra star!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed August 29-September 1, 2017, due to a Hurricane Harvey mandatory evacuation. All of the hotel staff were patience and kind to everyone during a stressful time.Our room was comfortable and spacious. There was a dorm size refrigerator and microwave.The breakfast selection was plentiful. On the second morning of our stay, there was fresh fruit of melon and strawberries which were very flavorful.Facility was kept clean.Normally I would rate this hotel as average because several lamps in the room were not working and there was mildew in the shower (which notified staff of when we checked out). The respectful staff earned the extra star!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r512055846-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>512055846</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Great location, nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel is in a GREAT location as it is very close to Highway 59, shopping, restaurants and even a movie theater. The room was very nice and quiet. House keeping did a great job on a daily basis. The only conversation I had with the hotel staff was the girl at the front desk when I checked in and she was nice enough. Parking spaces were always available although not plentiful. Free wi-fi in rooms with a pretty good selection of cable channels including like 4 HBO channels. Bed was fairly comfortable. My complaints are very minor in nature and would not keep me from staying at this property in the future. My toilet was running periodically, some of the lamps in the room did not work and the elevator stunk like hot body odor the entire time I was there. In conclusion, this is a very nice hotel in a great location and I will be staying there again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a GREAT location as it is very close to Highway 59, shopping, restaurants and even a movie theater. The room was very nice and quiet. House keeping did a great job on a daily basis. The only conversation I had with the hotel staff was the girl at the front desk when I checked in and she was nice enough. Parking spaces were always available although not plentiful. Free wi-fi in rooms with a pretty good selection of cable channels including like 4 HBO channels. Bed was fairly comfortable. My complaints are very minor in nature and would not keep me from staying at this property in the future. My toilet was running periodically, some of the lamps in the room did not work and the elevator stunk like hot body odor the entire time I was there. In conclusion, this is a very nice hotel in a great location and I will be staying there again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r509163717-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>509163717</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Great stay this week</t>
+  </si>
+  <si>
+    <t>Great place to stay if your in this area. Lot's of place's to eat and shop nearby. We stayed a week taking care of family stuff and overall a great stay. The pillows are typical hotel pillows so bring your own for a long stay. Breakfast was okay and the staff was nice. Shower heads suck but hey its not a deal breaker. Our A/C was on and set at 68 when we arrived and it kept it nice and cold in the room. The elevator did have a body odor smell the whole time we was there. I heard a lady tell a maid about it but it was still there. No complaints really and the deal was great only $69.00 a night for our stay since we stayed 5 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay if your in this area. Lot's of place's to eat and shop nearby. We stayed a week taking care of family stuff and overall a great stay. The pillows are typical hotel pillows so bring your own for a long stay. Breakfast was okay and the staff was nice. Shower heads suck but hey its not a deal breaker. Our A/C was on and set at 68 when we arrived and it kept it nice and cold in the room. The elevator did have a body odor smell the whole time we was there. I heard a lady tell a maid about it but it was still there. No complaints really and the deal was great only $69.00 a night for our stay since we stayed 5 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r506433418-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>506433418</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>If you want low water pressure and poor A/C stay here</t>
+  </si>
+  <si>
+    <t>I have stayed here 5 times. Unfortunately I will not return. My 4 day stay was enough to over ride the pleasant stays I had earlier in the year.It was hot outside.It was hot inside. My A/C kept shutting off every 5 minutes. I complained to the front desk numerous time but it was never fixed.The water came out of the shower in a tiny weak stream the entire stay. The sinks barely had any water coming out at all. The toilets took forever to fill.The shower curtain had an ominous brown stain as did the wall in the bathroom stall.The parking lot is always full of large white trucks and and construction vehicles making parking close to the doors unlikely.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here 5 times. Unfortunately I will not return. My 4 day stay was enough to over ride the pleasant stays I had earlier in the year.It was hot outside.It was hot inside. My A/C kept shutting off every 5 minutes. I complained to the front desk numerous time but it was never fixed.The water came out of the shower in a tiny weak stream the entire stay. The sinks barely had any water coming out at all. The toilets took forever to fill.The shower curtain had an ominous brown stain as did the wall in the bathroom stall.The parking lot is always full of large white trucks and and construction vehicles making parking close to the doors unlikely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r506287099-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>506287099</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>My husband and I don't care much for chain hotels, since they often look and feel cheap. This place was marvelous! Modern decor, variety in furnishings, plenty of room in the lounge for free breakfast, unusual breakfast choices (like hard-boiled eggs, cold cuts, strawberries &amp; melon, oatmeal toppings), Japanese-style sliding doors in the room for the bathroom, two separate sinks, computer area with lots of plugins. Only 2 things would have made it perfect: a couple more hooks for hanging bath towels &amp; a soft lamp by the bed (only lights near the bed were bright reading lights). The desk clerk, Eric, was very helpful &amp; friendly, especially to my husband, who had to wait around after checking out for me to finish up at a workshop nearby. I would definitely stay here again, and am even willing to try another Springhill Suites!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I don't care much for chain hotels, since they often look and feel cheap. This place was marvelous! Modern decor, variety in furnishings, plenty of room in the lounge for free breakfast, unusual breakfast choices (like hard-boiled eggs, cold cuts, strawberries &amp; melon, oatmeal toppings), Japanese-style sliding doors in the room for the bathroom, two separate sinks, computer area with lots of plugins. Only 2 things would have made it perfect: a couple more hooks for hanging bath towels &amp; a soft lamp by the bed (only lights near the bed were bright reading lights). The desk clerk, Eric, was very helpful &amp; friendly, especially to my husband, who had to wait around after checking out for me to finish up at a workshop nearby. I would definitely stay here again, and am even willing to try another Springhill Suites!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r499701449-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>499701449</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful.  The room was so comfortable, the bed was excellent.  I felt safe and secure staying at this hotel.  The breakfast was great. Oatmeal with all the fixings, scrambles eggs, nice assortment of breads, muffins and coffee cake, fresh fruit, juice, coffee, milk, cereal, waffle maker,  and really good coffee. I will be staying there nine more days over. The next two months and I am looking forward to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful.  The room was so comfortable, the bed was excellent.  I felt safe and secure staying at this hotel.  The breakfast was great. Oatmeal with all the fixings, scrambles eggs, nice assortment of breads, muffins and coffee cake, fresh fruit, juice, coffee, milk, cereal, waffle maker,  and really good coffee. I will be staying there nine more days over. The next two months and I am looking forward to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r482994790-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>482994790</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Nice surprise</t>
+  </si>
+  <si>
+    <t>We were traveling to Rockport,Tx and just stopped at this SpringHill Suites because it was getting late and we were tired. It was so nice. The staff were well trained in customer services and made us feel welcome. They even printed up a map to an area restaurant and so nice. Thank you Geraldine and Justine.Our room was clean and spacious. We enjoyed our stay very much. I will be staying at SpringHill Suites in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>We were traveling to Rockport,Tx and just stopped at this SpringHill Suites because it was getting late and we were tired. It was so nice. The staff were well trained in customer services and made us feel welcome. They even printed up a map to an area restaurant and so nice. Thank you Geraldine and Justine.Our room was clean and spacious. We enjoyed our stay very much. I will be staying at SpringHill Suites in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r465001824-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>465001824</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>What's Up With The Clock?</t>
+  </si>
+  <si>
+    <t>This was our 2nd stay at this hotel. The rooms are equiped with clocks I can't figure out. They are made to dock with an IPhone; however, the dock is for an older IPhone. I guess if you had an IPhone to dock the time would be correct., otherwise there are no instructions as how to set the time.The place is nice, but showing it's wear and tear, i.e., loose wallpaer in the bathroom worn carpet in the hall. There is construction going on on the upper floors, it stopped at about 5:30 and started again at +/- 8:30. Maybe as a part of the renovation they clocks will be repalced. Housekeeping need to dust the fans in the bathrooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our 2nd stay at this hotel. The rooms are equiped with clocks I can't figure out. They are made to dock with an IPhone; however, the dock is for an older IPhone. I guess if you had an IPhone to dock the time would be correct., otherwise there are no instructions as how to set the time.The place is nice, but showing it's wear and tear, i.e., loose wallpaer in the bathroom worn carpet in the hall. There is construction going on on the upper floors, it stopped at about 5:30 and started again at +/- 8:30. Maybe as a part of the renovation they clocks will be repalced. Housekeeping need to dust the fans in the bathrooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r463896556-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>463896556</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>5 star staff and service, very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and respectful.  Best pricing of a Marriott property I've seen in several years!  Melanie was especially helpful and does a terrific job!  I will be back at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and respectful.  Best pricing of a Marriott property I've seen in several years!  Melanie was especially helpful and does a terrific job!  I will be back at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r459307177-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>459307177</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Average hotel and price was cheap</t>
+  </si>
+  <si>
+    <t>We stayed here for three days.  The rooms are large which was nice and it does have a separate sitting lounge area with a sectional couch in the room which was also nice.  The hotel as well as the rooms are dated.  There were tears in the lamp shade and dirt and grime on the wallpaper.  The beds were comfortable, the pillows were poor, the towels were hard and scratchy and the air conditioning unit in the room was noisy.  Breakfast which is included is fine. Overall the hotel met our needs as it was close to where we needed to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for three days.  The rooms are large which was nice and it does have a separate sitting lounge area with a sectional couch in the room which was also nice.  The hotel as well as the rooms are dated.  There were tears in the lamp shade and dirt and grime on the wallpaper.  The beds were comfortable, the pillows were poor, the towels were hard and scratchy and the air conditioning unit in the room was noisy.  Breakfast which is included is fine. Overall the hotel met our needs as it was close to where we needed to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r455871267-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>455871267</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>An okay place for an extended stay</t>
+  </si>
+  <si>
+    <t>Decor leaves things to be desired, too modern and does not give a warm and cozy feeling.  Separate toilet closet from bathroom makes the room somewhat inconvienent.  Plenty of couch space so comfortable for longer stays and has a desk area.  Rooms are smallish though and not recommended if you are clostrophobicMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Decor leaves things to be desired, too modern and does not give a warm and cozy feeling.  Separate toilet closet from bathroom makes the room somewhat inconvienent.  Plenty of couch space so comfortable for longer stays and has a desk area.  Rooms are smallish though and not recommended if you are clostrophobicMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r451885513-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>451885513</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Stopover</t>
+  </si>
+  <si>
+    <t>Overall a great experience at this hotel.Friendly check in staff. Spacious comfortable comfortable rooms with nice amenities. Breakfast options were great. Breakfast area was kept very clean all items appeared very fresh and we'll stocked. Hotel seemed to be in a good area and easily accessible. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Overall a great experience at this hotel.Friendly check in staff. Spacious comfortable comfortable rooms with nice amenities. Breakfast options were great. Breakfast area was kept very clean all items appeared very fresh and we'll stocked. Hotel seemed to be in a good area and easily accessible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r441712500-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>441712500</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean - typical Marriott quality and vie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in Rosenberg to celebrate our niece's engagement and as loyal Marriott frequenters stayed at the SpringHill Suites in Rosenberg. Rooms are nice and clean and breakfast is included. Staff is very nice and accommodating. My one pet peeve of all lower level Marriott brands is the switch they made years ago to put toiletries in those miserable little squeeze tubes which never seem to contain an ample quantity of product. I understand that it's more cost effective but I wish they'd go back to the bottles. Breakfast isn't gourmet but it will fill your belly and for what it is, it's good. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r433740114-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>433740114</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>SpringHill Suites in Rosenburg, Tx, SW of Houston</t>
+  </si>
+  <si>
+    <t>Great place, very modern with big suites. Good parking, near shopping and restaurants. South west of Houston off the IH69 in Rosenburg. The only problem we had was that there was only one towel hook in the bathroom, a room with 2 queen beds. Has separate toilet room with sink.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r432544929-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>432544929</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Great location; close to freeway and shops but quiet; great breakfast and wonderful staff</t>
+  </si>
+  <si>
+    <t>This was a great hotel for my husband and me. My Mother has recently moved to assisted living, so we wanted somewhere my husband could work on a few of the days, but where I could go and visit my Mom all day long, and then I could catch up with work for a couple hours each evening. We'd tried a hotel in the past, and it just didn't work out. This was a perfect solution. There is a microwave and refrigerator in the room, and the rooms are large enough to allow 2 people to work in the living area without being cramped or someone having to use the bed. Beds, by the way, are comfortable -- and the rooms are really nice and quiet. There is a really nice Kroger Market and CVS Pharmacy in the same center, which makes it very nice and convenient. The breakfast was super fresh and good -- a nice buffet selection including eggs, a meat, salsa, oatmeal, waffles, cereal, breads, and fruit. As well as coffee and juices.  There was a good fitness center and a coin laundry as well. But the best part was the wonderful staff -- really helpful and informative.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This was a great hotel for my husband and me. My Mother has recently moved to assisted living, so we wanted somewhere my husband could work on a few of the days, but where I could go and visit my Mom all day long, and then I could catch up with work for a couple hours each evening. We'd tried a hotel in the past, and it just didn't work out. This was a perfect solution. There is a microwave and refrigerator in the room, and the rooms are large enough to allow 2 people to work in the living area without being cramped or someone having to use the bed. Beds, by the way, are comfortable -- and the rooms are really nice and quiet. There is a really nice Kroger Market and CVS Pharmacy in the same center, which makes it very nice and convenient. The breakfast was super fresh and good -- a nice buffet selection including eggs, a meat, salsa, oatmeal, waffles, cereal, breads, and fruit. As well as coffee and juices.  There was a good fitness center and a coin laundry as well. But the best part was the wonderful staff -- really helpful and informative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r423345239-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>423345239</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean location!Glad I changed locations during my trip! Lobby is really nice! Staff is nice and pool is amazing!Plenty of food options in the area.Major improvement from one year ago! Workout room is on point. I would stay here again! Thanks SpringHill suites for saving my trip to Houston!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r422272223-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>422272223</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Suites</t>
+  </si>
+  <si>
+    <t>Very clean, quiet and very comfortable beds. I liked the idea of two separate toilet and shower rooms.The only thing I didn't like was the eggs in their breakfast buffet, they tasted like powdered eggs, but other than that our stay was great. I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r418225885-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>418225885</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Spacious Room and Generous Breakfast</t>
+  </si>
+  <si>
+    <t>Unless you are looking for something truly upscale, you will not be disappointed with this hotel. It was clean, quiet, and well run. The room included a small sofa and desk area as well as the comfortable beds. There was a small refrigerator and microwave so those staying a bit longer than we did (overnight) can save some money by bringing a few easy meals. The staff was very accommodating and easily allowed me a special privilege I requested as a guest. I was very willing to pay for it, but they emphatically refused payment.  The complimentary breakfast had one of the best selections I've ever seen at a similar style hotel. Along with the usual choices, they had fresh fruit, fresh spinach (!), and various toppings for the oatmeal, yogurt, or waffles. I really appreciated seeing something green and several sources of protein among the offerings.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unless you are looking for something truly upscale, you will not be disappointed with this hotel. It was clean, quiet, and well run. The room included a small sofa and desk area as well as the comfortable beds. There was a small refrigerator and microwave so those staying a bit longer than we did (overnight) can save some money by bringing a few easy meals. The staff was very accommodating and easily allowed me a special privilege I requested as a guest. I was very willing to pay for it, but they emphatically refused payment.  The complimentary breakfast had one of the best selections I've ever seen at a similar style hotel. Along with the usual choices, they had fresh fruit, fresh spinach (!), and various toppings for the oatmeal, yogurt, or waffles. I really appreciated seeing something green and several sources of protein among the offerings.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r398632311-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>398632311</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Thoughtful staff</t>
+  </si>
+  <si>
+    <t>The staff has been extremely conscientious!  Namely, Crystal at the front desk.  She knew my granddaughter would appreciate the fresh baked cookies that we enjoyed last night. After seeing me in the lobby she asked if my granddaughter was around for tonight's round of goodness...which she just happened to be.   It's the little gestures that make a 'stay' enjoyable!!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r395477860-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>395477860</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Accomodations</t>
+  </si>
+  <si>
+    <t>Great Hotel with large rooms with everything you need. Desk in area with sofa and coffee table. Mini bar, fridge, microwave nearby. Sleeping area very nice with lots of drawer storage. Breakfast buffet was very nice. Definitely would stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r394670868-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>394670868</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>always pleasing</t>
+  </si>
+  <si>
+    <t>We have stayed at SpringHill in Rosenberg many times with groups of friends.  We have always been pleased with the accommodations and the staff. The rooms and comfortable and clean...the breakfast is always on spot too....  thank you all so much.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r391451750-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>391451750</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Very Plaesed</t>
+  </si>
+  <si>
+    <t>My husband &amp; I were guests Easter weekend visiting my daughter who lives in Rosenberg. Driving from San Antonio we arrived at 8pm Friday evening &amp; were immediately given our room key card. The gentleman at the front desk was very friendly &amp; professional. Our room was very clean &amp; we were very pleased. We had breakfast Sat &amp; Sun morning &amp; there was plenty of good food including waffles. We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r388099755-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>388099755</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Hotel won't even answer phone calls!  I called twice, waited 20 minutes each time, and gave up.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night earlier this week.  I think I left an item behind in my room, so I have tried to call to speak with someone about whether it had been found by the housekeeping staff.  I got a recording thanking me for my call and asking if I know the name of the person with whom I wish to speak.  The recording instructs me to enter "0" or stay on the line to be transferred to the operator, but doing so just causes the recording to play again.  I spent twenty minutes on hold last night and another twenty minutes on hold this morning, and now I'm giving up.  The lost item is not worth the aggravation and frustration caused by this hotel's lack of service.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Pattina W, Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night earlier this week.  I think I left an item behind in my room, so I have tried to call to speak with someone about whether it had been found by the housekeeping staff.  I got a recording thanking me for my call and asking if I know the name of the person with whom I wish to speak.  The recording instructs me to enter "0" or stay on the line to be transferred to the operator, but doing so just causes the recording to play again.  I spent twenty minutes on hold last night and another twenty minutes on hold this morning, and now I'm giving up.  The lost item is not worth the aggravation and frustration caused by this hotel's lack of service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r386219479-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>386219479</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Location </t>
+  </si>
+  <si>
+    <t>Friendly staff,  breakfast was adequate.   Location great,  close to shopping.   Room was a suite which had four adults in comfortably.   Folding bed was uncomfortable but expected.  Obvious some renovation needed but overall good value for money. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pattina W, Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff,  breakfast was adequate.   Location great,  close to shopping.   Room was a suite which had four adults in comfortably.   Folding bed was uncomfortable but expected.  Obvious some renovation needed but overall good value for money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r362307464-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>362307464</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently stayed at this hotel for business and  it was  very nice. The grounds were clean and well kept. The inside was very clean and also well maintained. The staff were very friendly and helpful.  The price was very good as well as the amenities. The breakfast was very good and included.  There is a shopping plaza right next door with everything you need.  I would definately stay here again. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r361725491-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>361725491</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Another bad experience</t>
+  </si>
+  <si>
+    <t>My work group has stays at this hotel in the past and it has never need good. This time I have ants in my room. There is mold in the a/c. The sink doesn't drain. Light in the room don't work. The lock on the back door of the hotel hasn't worked the whole time we've been here. The breakfast is never on time and it's not good anyway. This hotel has had plenty of time to fix their problems but haven't.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r360942009-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>360942009</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel and Great Service</t>
+  </si>
+  <si>
+    <t>Neat room designs with separate Washroom and showers. Had a problem with the TV and Brandon (think that was his name) really went out of his way to assist and was most concerned that we were satisfied....the ultimate in customer service. Thanks Brandon. Would definitely recommend this hotel and will certainly be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r351332084-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>351332084</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean. The staff was very friendly. The check in was quick and easy. I stayed on the 4th floor. The room was very roomy and clean. Everything worked in the room. The only downside to the room was the noise. I could hear the individuals in the room next to me early in the morning. With that being said, I would definitely stay here again. The hotel is close to several shops and eating places.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r344476510-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>344476510</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Friendly, Friendly Friendly</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and that was refreshing. However, this hotel is showing its age. Carpet stains were kinda gross in my room. The breakfast area cabinets need a redo. Love that they offer a gas grill, hate that not all the burners were working, 2 hours to grill burgers :(.  Would I stay here again, yes the location is where I need to be.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r339509187-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>339509187</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Great staff, number one!</t>
+  </si>
+  <si>
+    <t>Plenty of parking, close to shopping. Staff say hotel is about 5 years old but rooms and lobby look like new. All the staff we spoke to were very helpful and always smiling. Would stay again if in the area.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r331329299-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>331329299</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Noisy air conditioning</t>
+  </si>
+  <si>
+    <t>It's quite annoying to me that otherwise very nice hotels don't consider the noise of the air conditioner. It's beautiful weather outside but of course the windows don't open. The A/C is very loud and goes on and off every five minutes or so. It's cold when it's blowing, hot when it's not...a constant nuisance that makes the room always uncomfortable. And with the free breakfast, as usual, you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>It's quite annoying to me that otherwise very nice hotels don't consider the noise of the air conditioner. It's beautiful weather outside but of course the windows don't open. The A/C is very loud and goes on and off every five minutes or so. It's cold when it's blowing, hot when it's not...a constant nuisance that makes the room always uncomfortable. And with the free breakfast, as usual, you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r327244272-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>327244272</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Friendly and modern</t>
+  </si>
+  <si>
+    <t>This is my first time using this brand and we arrived to a great reception. Taylor at the front desk got us checked in and welcomed us as rewards members. Our room is very nice and modern which accommodates business travelers well. I will definitely recommend that we stay here on a regular basis.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>This is my first time using this brand and we arrived to a great reception. Taylor at the front desk got us checked in and welcomed us as rewards members. Our room is very nice and modern which accommodates business travelers well. I will definitely recommend that we stay here on a regular basis.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r326093558-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>326093558</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Very impressive!</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel while we were in town for some legal business, and we loved it.  It's sometimes difficult to find a really good place when dealing with other people's recommendations, but I can say that this place was really, really good!  We liked the separate bath/toilet areas for sure!  Also, the sliding pocket-style doors were nice.  The bed was extra comfortable.  Normally we don't find that to be true, since we have been spoiled by our Tempur-Pedic at home.  Everything was stylish and first-rate.  The breakfast was especially good, too.  Overall, you won't go wrong with this hotel.  If we are ever back in this area, we will definitely stay here because it is close to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel while we were in town for some legal business, and we loved it.  It's sometimes difficult to find a really good place when dealing with other people's recommendations, but I can say that this place was really, really good!  We liked the separate bath/toilet areas for sure!  Also, the sliding pocket-style doors were nice.  The bed was extra comfortable.  Normally we don't find that to be true, since we have been spoiled by our Tempur-Pedic at home.  Everything was stylish and first-rate.  The breakfast was especially good, too.  Overall, you won't go wrong with this hotel.  If we are ever back in this area, we will definitely stay here because it is close to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r311697383-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>311697383</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Excellent! It was so much fun working with Taylor Willette. I was here a little bit more than a month for opening of my new Carmax store near by. These people were wonderful to all of us and addressed all of our concerns immediately. There was over 100 of us staying in last several months and everyone feels the same. Keep up with great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Excellent! It was so much fun working with Taylor Willette. I was here a little bit more than a month for opening of my new Carmax store near by. These people were wonderful to all of us and addressed all of our concerns immediately. There was over 100 of us staying in last several months and everyone feels the same. Keep up with great work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r310281617-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>310281617</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised, Mostly!</t>
+  </si>
+  <si>
+    <t>My first experience with SpringHill Suites Hou-Rose was nearly perfect. Tho' a seasoned traveler, this stay was born of absolute necessity. I recently moved to a new home nearby but was forced to seek shelter and solace elsewhere due to the sudden, necessary installation of several pieces of extremely noisy, nerve-wrecking, commercial-grade equipment inside my home A new neighbor highly recommended this SpringHill Suites location. Considering my urgent need, the pleasant, sympathetic and apparently competent young woman who answered my tele call, Taylor Willette, booked me into the perfect suite for me. I asked to be near but not too close to an elevator. It was a busy Labor Day weekend yet my requests/calls were responded to quickly and satisfactorily. I especially loved the unusual room design/layout (a separate water closet with a pedestal sink!!). I look forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>My first experience with SpringHill Suites Hou-Rose was nearly perfect. Tho' a seasoned traveler, this stay was born of absolute necessity. I recently moved to a new home nearby but was forced to seek shelter and solace elsewhere due to the sudden, necessary installation of several pieces of extremely noisy, nerve-wrecking, commercial-grade equipment inside my home A new neighbor highly recommended this SpringHill Suites location. Considering my urgent need, the pleasant, sympathetic and apparently competent young woman who answered my tele call, Taylor Willette, booked me into the perfect suite for me. I asked to be near but not too close to an elevator. It was a busy Labor Day weekend yet my requests/calls were responded to quickly and satisfactorily. I especially loved the unusual room design/layout (a separate water closet with a pedestal sink!!). I look forward to my next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r305159125-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>305159125</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banquet room </t>
+  </si>
+  <si>
+    <t>I love this hotel.  The staff is extremely friendly. When we got to the hotel the banquet room was not ready. However, Chrystal at the front desk quickly found a cleaning lady who rushed to the room and got it perfect.  We cooked hot dogs on the gas grill provided by the hotel. Taylor who also works at the front desk stopped by to make sure I was good and we even invited her to get a plate and some cake.   I have had both of my daughters birthday parties there within the last year and it was such a success, that the kids that came started asking their parents if they could have a party there too.  We will be staying 2 nights at the hotel next week. And my girls are excited to swim the whole time.  When I booked it I also met the manager of the hotel but unfortunately I am not able to remember her name. However, she was extremely friendly and came over and introduced herself to be.  I highly recommend the Springhill Suites to everyone.  Here is a pictures of how I decorated the banquet room our theme was dolphins and underwater. And of course the beautiful birthday girl and her cakes.  Also the carpet could not match any more perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this hotel.  The staff is extremely friendly. When we got to the hotel the banquet room was not ready. However, Chrystal at the front desk quickly found a cleaning lady who rushed to the room and got it perfect.  We cooked hot dogs on the gas grill provided by the hotel. Taylor who also works at the front desk stopped by to make sure I was good and we even invited her to get a plate and some cake.   I have had both of my daughters birthday parties there within the last year and it was such a success, that the kids that came started asking their parents if they could have a party there too.  We will be staying 2 nights at the hotel next week. And my girls are excited to swim the whole time.  When I booked it I also met the manager of the hotel but unfortunately I am not able to remember her name. However, she was extremely friendly and came over and introduced herself to be.  I highly recommend the Springhill Suites to everyone.  Here is a pictures of how I decorated the banquet room our theme was dolphins and underwater. And of course the beautiful birthday girl and her cakes.  Also the carpet could not match any more perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r296294960-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>296294960</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Kind staff and clean rooms</t>
+  </si>
+  <si>
+    <t>Our stay did not start out well, but the staff (Taylor, Grace, and Crystal) truly made up for some of the inconveniences we experienced.  Our confirmed reservation for Friday (7/31/15) through Sunday (8/2/15) was for a king bed suite.  When we arrived there was no one attending the front desk.  After almost 10 minutes, a gentleman (missed his name) kindly greeted us and apologized for our wait. (He was extremely busy - running towels to rooms, answering phones, etc.).  After getting checked in, we looked forward to relaxing after our full day of air and road travel.  Much to our dismay, we opened the door to a room which was already occupied - terribly embarrassing!!  We went back downstairs immediately to get checked into another room.  Unfortunately, the only room left had two queen beds.  Not the worst thing in the world, but not what my fiancee and I preferred.  Finally, we got to lay our heads down.  Our room was clean and the bed was comfortable.
+On Saturday (8/1/15), we attended a wedding.  We left our room around 1:30pm and celebrated the union of our friends until almost 9pm that night.  When we returned, ready to relax, neither of our keys worked in our room door.  We went downstairs and spoke with Taylor, the front desk attendant, and found out that we had been checked out of our room (way too long of a story to share here).  I...Our stay did not start out well, but the staff (Taylor, Grace, and Crystal) truly made up for some of the inconveniences we experienced.  Our confirmed reservation for Friday (7/31/15) through Sunday (8/2/15) was for a king bed suite.  When we arrived there was no one attending the front desk.  After almost 10 minutes, a gentleman (missed his name) kindly greeted us and apologized for our wait. (He was extremely busy - running towels to rooms, answering phones, etc.).  After getting checked in, we looked forward to relaxing after our full day of air and road travel.  Much to our dismay, we opened the door to a room which was already occupied - terribly embarrassing!!  We went back downstairs immediately to get checked into another room.  Unfortunately, the only room left had two queen beds.  Not the worst thing in the world, but not what my fiancee and I preferred.  Finally, we got to lay our heads down.  Our room was clean and the bed was comfortable.On Saturday (8/1/15), we attended a wedding.  We left our room around 1:30pm and celebrated the union of our friends until almost 9pm that night.  When we returned, ready to relax, neither of our keys worked in our room door.  We went downstairs and spoke with Taylor, the front desk attendant, and found out that we had been checked out of our room (way too long of a story to share here).  I showed Taylor the reservation confirmation from my email and she was able to sort everything out.  Taylor was very accommodating and quick to resolve the matter.On Sunday (8/2/15) as we were checking out, we saw that our bill was not in order.  From what I understood, since my reservation was mixed up upon my arrival Friday (7/31/15), a new reservation had to be made.  Long story longer, I was charged for both rooms (my original reservation and the new reservation made when I had to switch to an new room).  The front desk attendant on Sunday, Grace, was able to troubleshoot the matter and adjust our bill accordingly.When I looked at my credit card bill statement yesterday (8/5/15) to review the charges, I saw that I was charged incorrectly (this had to do with my initial check-in on Friday (7/31/15)).  I called Springhill Suites immediately and was kindly greeted by Crystal Hernandez.  I explained the confusing debacle of our stay to Crystal and she quickly made adjustments so that I was not overcharged.  Crystal was extremely efficient and I appreciated that she called within the hour to make sure I received an email from her with the receipts which reflected the money refunded to my credit card.Overall, it was a comfortable stay.  Although we were certainly inconvenienced upon our initial arrival and again after the wedding, Taylor, Grace, and Crystal really made for an enjoyable experience at Springhill Suites.I would like to make a suggestion that they have an additional attendant at the front desk - this way it will be "manned" at ALL times.  I can see how hard the front desk attendants work, but they should not be running towels to rooms, answering phones, and checking leaky faucets, all while trying to check someone in upon their arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Our stay did not start out well, but the staff (Taylor, Grace, and Crystal) truly made up for some of the inconveniences we experienced.  Our confirmed reservation for Friday (7/31/15) through Sunday (8/2/15) was for a king bed suite.  When we arrived there was no one attending the front desk.  After almost 10 minutes, a gentleman (missed his name) kindly greeted us and apologized for our wait. (He was extremely busy - running towels to rooms, answering phones, etc.).  After getting checked in, we looked forward to relaxing after our full day of air and road travel.  Much to our dismay, we opened the door to a room which was already occupied - terribly embarrassing!!  We went back downstairs immediately to get checked into another room.  Unfortunately, the only room left had two queen beds.  Not the worst thing in the world, but not what my fiancee and I preferred.  Finally, we got to lay our heads down.  Our room was clean and the bed was comfortable.
+On Saturday (8/1/15), we attended a wedding.  We left our room around 1:30pm and celebrated the union of our friends until almost 9pm that night.  When we returned, ready to relax, neither of our keys worked in our room door.  We went downstairs and spoke with Taylor, the front desk attendant, and found out that we had been checked out of our room (way too long of a story to share here).  I...Our stay did not start out well, but the staff (Taylor, Grace, and Crystal) truly made up for some of the inconveniences we experienced.  Our confirmed reservation for Friday (7/31/15) through Sunday (8/2/15) was for a king bed suite.  When we arrived there was no one attending the front desk.  After almost 10 minutes, a gentleman (missed his name) kindly greeted us and apologized for our wait. (He was extremely busy - running towels to rooms, answering phones, etc.).  After getting checked in, we looked forward to relaxing after our full day of air and road travel.  Much to our dismay, we opened the door to a room which was already occupied - terribly embarrassing!!  We went back downstairs immediately to get checked into another room.  Unfortunately, the only room left had two queen beds.  Not the worst thing in the world, but not what my fiancee and I preferred.  Finally, we got to lay our heads down.  Our room was clean and the bed was comfortable.On Saturday (8/1/15), we attended a wedding.  We left our room around 1:30pm and celebrated the union of our friends until almost 9pm that night.  When we returned, ready to relax, neither of our keys worked in our room door.  We went downstairs and spoke with Taylor, the front desk attendant, and found out that we had been checked out of our room (way too long of a story to share here).  I showed Taylor the reservation confirmation from my email and she was able to sort everything out.  Taylor was very accommodating and quick to resolve the matter.On Sunday (8/2/15) as we were checking out, we saw that our bill was not in order.  From what I understood, since my reservation was mixed up upon my arrival Friday (7/31/15), a new reservation had to be made.  Long story longer, I was charged for both rooms (my original reservation and the new reservation made when I had to switch to an new room).  The front desk attendant on Sunday, Grace, was able to troubleshoot the matter and adjust our bill accordingly.When I looked at my credit card bill statement yesterday (8/5/15) to review the charges, I saw that I was charged incorrectly (this had to do with my initial check-in on Friday (7/31/15)).  I called Springhill Suites immediately and was kindly greeted by Crystal Hernandez.  I explained the confusing debacle of our stay to Crystal and she quickly made adjustments so that I was not overcharged.  Crystal was extremely efficient and I appreciated that she called within the hour to make sure I received an email from her with the receipts which reflected the money refunded to my credit card.Overall, it was a comfortable stay.  Although we were certainly inconvenienced upon our initial arrival and again after the wedding, Taylor, Grace, and Crystal really made for an enjoyable experience at Springhill Suites.I would like to make a suggestion that they have an additional attendant at the front desk - this way it will be "manned" at ALL times.  I can see how hard the front desk attendants work, but they should not be running towels to rooms, answering phones, and checking leaky faucets, all while trying to check someone in upon their arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r296057671-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>296057671</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t>"Excellent and Efficient Staff" It was a pleasure working with Taylor Willette, Allyson Reed, Patrick Stevens, Crystal Hernandez and Thomas Miller. Thank You all for your hard work and dedication to your jobs!! I've been staying at Marriott's for 30 years and they were the kindest and most helpfull professional staff I've ever been around..MoreShow less</t>
+  </si>
+  <si>
+    <t>"Excellent and Efficient Staff" It was a pleasure working with Taylor Willette, Allyson Reed, Patrick Stevens, Crystal Hernandez and Thomas Miller. Thank You all for your hard work and dedication to your jobs!! I've been staying at Marriott's for 30 years and they were the kindest and most helpfull professional staff I've ever been around..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r291772571-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>291772571</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>THOMAS MILLER</t>
+  </si>
+  <si>
+    <t>Very personal, helpful, and pleasant we need more people working in positions like this. he really desrve extra points for the exceptional jobs he does for your company.Tommy Ross310-2256789.I would consider he for first for a promotionMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Very personal, helpful, and pleasant we need more people working in positions like this. he really desrve extra points for the exceptional jobs he does for your company.Tommy Ross310-2256789.I would consider he for first for a promotionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r283206028-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>283206028</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Stayed a few days, the rooms and common areas were clean and well maintained. The breakfast is better during the week than the weekends. The pool area was nice. Close to grocery store and major shopping area, very convienent if you need anything, food, restaurants, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed a few days, the rooms and common areas were clean and well maintained. The breakfast is better during the week than the weekends. The pool area was nice. Close to grocery store and major shopping area, very convienent if you need anything, food, restaurants, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r281463498-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>281463498</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>AVOID.  NOT up to Marriott Standards!</t>
+  </si>
+  <si>
+    <t>This hotel was a disappointment.  Our room was NOT clean nor were the public areas.  Our room had stains on the carpet and the bedding.  The shower actually had filth in the corners and had a strip of caulking that had broken away ( and not removed by housekeeping) which was crusted in black mold.  
+I requested foam pillows and was presented with the most sorry examples imaginable.  How this hotel passes the multitude of inspections that I know to be a part of the Marriott chain is beyond me.
+I went to the Front Desk and ask to speak to the General Manager.  She was pacing the FRONT door of her property SMOKING and I had to wait for her to conclude her public smoke break to have a conversation (how unprofessional....!!!).  
+When I brought the issue of the inexcusable pillows to her attention, she told me that her property is getting new pillows...she actually expected me to feel she is justified to have presented the current bedding her property offered.  I also told her about the many compromises of cleanliness I witnessed and all she could do is say, sorry.
+I do not write this review of a Marriott property without experience.  My husband began a 42 year career with Mr. Marriott Sr. and was himself a General Manager of full service Marriott hotels around the globe.  Needless to say, I have stayed in my share of Marriott...This hotel was a disappointment.  Our room was NOT clean nor were the public areas.  Our room had stains on the carpet and the bedding.  The shower actually had filth in the corners and had a strip of caulking that had broken away ( and not removed by housekeeping) which was crusted in black mold.  I requested foam pillows and was presented with the most sorry examples imaginable.  How this hotel passes the multitude of inspections that I know to be a part of the Marriott chain is beyond me.I went to the Front Desk and ask to speak to the General Manager.  She was pacing the FRONT door of her property SMOKING and I had to wait for her to conclude her public smoke break to have a conversation (how unprofessional....!!!).  When I brought the issue of the inexcusable pillows to her attention, she told me that her property is getting new pillows...she actually expected me to feel she is justified to have presented the current bedding her property offered.  I also told her about the many compromises of cleanliness I witnessed and all she could do is say, sorry.I do not write this review of a Marriott property without experience.  My husband began a 42 year career with Mr. Marriott Sr. and was himself a General Manager of full service Marriott hotels around the globe.  Needless to say, I have stayed in my share of Marriott as well as countless  other hotels over the years.  This property stirred my inner core.  I felt sadly for my husband who spent years growing the brand of proud hotels who have been reduced to this level.  And for the record, I do fully understand the various brands in the Marriott hierarchy and I do understand this product to be a limited service, somewhat no frills brand...HOWEVER, I do expect simply cleanliness and professionalism from a General Manager on any level.   As I told Cynthia the GM, Mr. Marriott is rolling over in his grave.  Maybe she should read the in- room book, The Spirit to Serve, with any luck she may learn a thing or two!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was a disappointment.  Our room was NOT clean nor were the public areas.  Our room had stains on the carpet and the bedding.  The shower actually had filth in the corners and had a strip of caulking that had broken away ( and not removed by housekeeping) which was crusted in black mold.  
+I requested foam pillows and was presented with the most sorry examples imaginable.  How this hotel passes the multitude of inspections that I know to be a part of the Marriott chain is beyond me.
+I went to the Front Desk and ask to speak to the General Manager.  She was pacing the FRONT door of her property SMOKING and I had to wait for her to conclude her public smoke break to have a conversation (how unprofessional....!!!).  
+When I brought the issue of the inexcusable pillows to her attention, she told me that her property is getting new pillows...she actually expected me to feel she is justified to have presented the current bedding her property offered.  I also told her about the many compromises of cleanliness I witnessed and all she could do is say, sorry.
+I do not write this review of a Marriott property without experience.  My husband began a 42 year career with Mr. Marriott Sr. and was himself a General Manager of full service Marriott hotels around the globe.  Needless to say, I have stayed in my share of Marriott...This hotel was a disappointment.  Our room was NOT clean nor were the public areas.  Our room had stains on the carpet and the bedding.  The shower actually had filth in the corners and had a strip of caulking that had broken away ( and not removed by housekeeping) which was crusted in black mold.  I requested foam pillows and was presented with the most sorry examples imaginable.  How this hotel passes the multitude of inspections that I know to be a part of the Marriott chain is beyond me.I went to the Front Desk and ask to speak to the General Manager.  She was pacing the FRONT door of her property SMOKING and I had to wait for her to conclude her public smoke break to have a conversation (how unprofessional....!!!).  When I brought the issue of the inexcusable pillows to her attention, she told me that her property is getting new pillows...she actually expected me to feel she is justified to have presented the current bedding her property offered.  I also told her about the many compromises of cleanliness I witnessed and all she could do is say, sorry.I do not write this review of a Marriott property without experience.  My husband began a 42 year career with Mr. Marriott Sr. and was himself a General Manager of full service Marriott hotels around the globe.  Needless to say, I have stayed in my share of Marriott as well as countless  other hotels over the years.  This property stirred my inner core.  I felt sadly for my husband who spent years growing the brand of proud hotels who have been reduced to this level.  And for the record, I do fully understand the various brands in the Marriott hierarchy and I do understand this product to be a limited service, somewhat no frills brand...HOWEVER, I do expect simply cleanliness and professionalism from a General Manager on any level.   As I told Cynthia the GM, Mr. Marriott is rolling over in his grave.  Maybe she should read the in- room book, The Spirit to Serve, with any luck she may learn a thing or two!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r281415266-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>281415266</t>
+  </si>
+  <si>
+    <t>Close to a Wedding Venue and Decent Service</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here while attending a wedding. There was a group block for wedding guests, so it was inexpensive, plus I am a Marriott Rewards member and it made sense for us to stay there. The room was clean, and the staff was pleasant and accomodating. We stayed for two nights. The check out process was smooth. I would stay again if ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here while attending a wedding. There was a group block for wedding guests, so it was inexpensive, plus I am a Marriott Rewards member and it made sense for us to stay there. The room was clean, and the staff was pleasant and accomodating. We stayed for two nights. The check out process was smooth. I would stay again if ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r273849458-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>273849458</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>It was as good as I remembered</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed for a weekend May 2015 for a business trip.  We had stayed once before last year and both stays were excellent.  Great room with mini fridge &amp; microwave. Perfect for storing &amp; later heating up leftovers from dinner the night before. Liked the separate shower and toilet areas. Comfortable bed with both soft &amp; firm pillows. Housekeeping was good. Wished they had a soda machine on the premises, though.  I was able to walk to many stores and do some shopping as my husband had the car all day.  Also next to a Krogers grocery store.  We'll be back next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed for a weekend May 2015 for a business trip.  We had stayed once before last year and both stays were excellent.  Great room with mini fridge &amp; microwave. Perfect for storing &amp; later heating up leftovers from dinner the night before. Liked the separate shower and toilet areas. Comfortable bed with both soft &amp; firm pillows. Housekeeping was good. Wished they had a soda machine on the premises, though.  I was able to walk to many stores and do some shopping as my husband had the car all day.  Also next to a Krogers grocery store.  We'll be back next year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r272433619-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>272433619</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Great Suites</t>
+  </si>
+  <si>
+    <t>Stayed for the week.  Beautiful Suites, lots to do both in and out of the hotel.  Always clean rooms.  Just wish they had room service.  Pain going out every night for dinner.  Lots of amenities.  Fridge, microwave, all the usual stuff.  Enjoyed the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for the week.  Beautiful Suites, lots to do both in and out of the hotel.  Always clean rooms.  Just wish they had room service.  Pain going out every night for dinner.  Lots of amenities.  Fridge, microwave, all the usual stuff.  Enjoyed the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r270582973-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>270582973</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Glass bathroom doors suck!</t>
+  </si>
+  <si>
+    <t>The property is beautiful and the hotel is nice.  The room was very pretty, BUT.... putting a glass door on the restroom is just not smart.  I was trying to sleep while my gf was taking a shower. Needless to say, I was forced to wake when she did since all the light was shining through the glass door directly in to my face. Other than that, it was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>The property is beautiful and the hotel is nice.  The room was very pretty, BUT.... putting a glass door on the restroom is just not smart.  I was trying to sleep while my gf was taking a shower. Needless to say, I was forced to wake when she did since all the light was shining through the glass door directly in to my face. Other than that, it was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r264580267-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>264580267</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Bad management</t>
+  </si>
+  <si>
+    <t>I have stayed at this location a few times because of its location. The hotel is relatively new and decent BUT...this stay, they booked, apparently, a wedding reception. So, at 12:30 am and beyond, as I tried to sleep, I heard the drunken party-goers screaming. No hotel should sacrifice their customers who pay to sleep there by booking an event where the noise is that loud, that late. PLUS, for breakfast the next morning, they had one toaster for everyone to try to use, and everything is all crammed together, so negotiating the food vs. the people is a challenge. And generally a rather cheap offering overall--not up to standard SpringHill Suites quality. Looks like next time I'll drive a little farther into Houston and stay at a different Marriott property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this location a few times because of its location. The hotel is relatively new and decent BUT...this stay, they booked, apparently, a wedding reception. So, at 12:30 am and beyond, as I tried to sleep, I heard the drunken party-goers screaming. No hotel should sacrifice their customers who pay to sleep there by booking an event where the noise is that loud, that late. PLUS, for breakfast the next morning, they had one toaster for everyone to try to use, and everything is all crammed together, so negotiating the food vs. the people is a challenge. And generally a rather cheap offering overall--not up to standard SpringHill Suites quality. Looks like next time I'll drive a little farther into Houston and stay at a different Marriott property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r263870852-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>263870852</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>My home away from home....</t>
+  </si>
+  <si>
+    <t>This is a gem! It takes me15 to 25 minutes to drive from here to anywhere in Houston. This hotel is a great business hotel. Patrick has been booking my reservations for four years, but everyone is very competent and friendly. He knows all of his guests and preferences after the first visit. Very professional fellow. The breakfasts are really well thought out. I am gluten free, so it matters that I have choices besides bread or cereal items. They have hard boiled eggs, nice fruits, yogurt and other healthy breakfast foods, as well as bagels and pastries. I am very grateful to have a safe, clean and beautiful place to stay for a day, or a week. You will love it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded April 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a gem! It takes me15 to 25 minutes to drive from here to anywhere in Houston. This hotel is a great business hotel. Patrick has been booking my reservations for four years, but everyone is very competent and friendly. He knows all of his guests and preferences after the first visit. Very professional fellow. The breakfasts are really well thought out. I am gluten free, so it matters that I have choices besides bread or cereal items. They have hard boiled eggs, nice fruits, yogurt and other healthy breakfast foods, as well as bagels and pastries. I am very grateful to have a safe, clean and beautiful place to stay for a day, or a week. You will love it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r258688822-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>258688822</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place. </t>
+  </si>
+  <si>
+    <t>Nice new hotel just west of Houston. Good price and clean rooms. Free breakfast and close to highways. Not much around as far as local restaurants but you won't starve either. We stayed here and avoided the traffic to downtown. It was a rainy day and tons of accidents all over the place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel just west of Houston. Good price and clean rooms. Free breakfast and close to highways. Not much around as far as local restaurants but you won't starve either. We stayed here and avoided the traffic to downtown. It was a rainy day and tons of accidents all over the place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r249806163-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>249806163</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWESOME  CUSTOMER SERVICE </t>
+  </si>
+  <si>
+    <t>I arrived on Sunday and found some issues with my room. I immediately addressed it with the front desk, from that moment I had in what is my opinion, the upmost professional customer service. I not only had the issues addressed and resolved I continued to have the staff inquire about me and my stay, my needs, and concerns. I have been in big cities with less than average or no customer service period and I've been to small towns with poor hotel standards and service. I will give credit where credit is do. And this hotel deserves alot of credit for its professionalism, attention to detail and follow through with customer conern. Thank you guys for all your effort in working with my awkward schedule and hotel needs while working at a hospital. You guys did an amazing job.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>I arrived on Sunday and found some issues with my room. I immediately addressed it with the front desk, from that moment I had in what is my opinion, the upmost professional customer service. I not only had the issues addressed and resolved I continued to have the staff inquire about me and my stay, my needs, and concerns. I have been in big cities with less than average or no customer service period and I've been to small towns with poor hotel standards and service. I will give credit where credit is do. And this hotel deserves alot of credit for its professionalism, attention to detail and follow through with customer conern. Thank you guys for all your effort in working with my awkward schedule and hotel needs while working at a hospital. You guys did an amazing job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r245987282-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>245987282</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>The only place to stay in Rosenberg!</t>
+  </si>
+  <si>
+    <t>My family lives in a small house in a nearby town.  When we come to visit all my siblings and myself stay here!  It is about $10 more than other hotels around, but you are getting a studio apartment, not a hotel room.  The beds are comfy, there is a partitioned off area, and a small living room with a couch and a desk in every room!  Even the bathrooms are neat because the toilet is separate from the bathtub so 2 people can be getting ready at the same time.  We have stayed here many times and the staff is always very nice and there is ample parking.  The "continental" breakfast is a full fledged meal.  Which is almost too bad because there is a Cracker Barrel close by and I never get to eat there because the breakfast they serve here is always so much we are too full to go out!  There is a nice pool area with a grill out there and lots of tables and chairs.  We have even sat out there and played cards and had a pool party.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>My family lives in a small house in a nearby town.  When we come to visit all my siblings and myself stay here!  It is about $10 more than other hotels around, but you are getting a studio apartment, not a hotel room.  The beds are comfy, there is a partitioned off area, and a small living room with a couch and a desk in every room!  Even the bathrooms are neat because the toilet is separate from the bathtub so 2 people can be getting ready at the same time.  We have stayed here many times and the staff is always very nice and there is ample parking.  The "continental" breakfast is a full fledged meal.  Which is almost too bad because there is a Cracker Barrel close by and I never get to eat there because the breakfast they serve here is always so much we are too full to go out!  There is a nice pool area with a grill out there and lots of tables and chairs.  We have even sat out there and played cards and had a pool party.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r244087874-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>244087874</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Such comfort.</t>
+  </si>
+  <si>
+    <t>My suite was roomy and inviting, brightly lit with a sofa bed/ chaise lounge and a very comfortable king size bed.  There were outlets everywhere to plug in my lap top, cellphone and portable DVD player.The flat screen tv was used extensively in my two night stay.The breakfast room was well utilized both mornings.The only drawbacks were: a stain on the seat of the chaise and a bathroom fan that was way too loud and sounded like it was on it's last legs.  I was in room 421.Fridge, microwave, iron and board, study area and blow dryer were all expected and appreciated.I WILL return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>My suite was roomy and inviting, brightly lit with a sofa bed/ chaise lounge and a very comfortable king size bed.  There were outlets everywhere to plug in my lap top, cellphone and portable DVD player.The flat screen tv was used extensively in my two night stay.The breakfast room was well utilized both mornings.The only drawbacks were: a stain on the seat of the chaise and a bathroom fan that was way too loud and sounded like it was on it's last legs.  I was in room 421.Fridge, microwave, iron and board, study area and blow dryer were all expected and appreciated.I WILL return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r239490933-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>239490933</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I'd like to cite Patrick Stevens at the front desk for being of great assistance. He went above and beyond the "call of duty" to provide professional expertise with documentation that was needed at the last minute. The hotel is an outstanding property and a credit to Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>I'd like to cite Patrick Stevens at the front desk for being of great assistance. He went above and beyond the "call of duty" to provide professional expertise with documentation that was needed at the last minute. The hotel is an outstanding property and a credit to Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r239309992-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>239309992</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here while we visited family and the staff was extremely friendly and helpful the room was very nice . comfortable bed plenty of pillows which is a plus for me it was also nice to have a separate sitting area. we watched a movie and it was nice that everyone had a seat.  room was clean. The separate bathroom a d shower was nice also. I will definitely stay here again.  the only problem I had on this trip was the card reader had issues trying to get in the back door other than that everything was greatMoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here while we visited family and the staff was extremely friendly and helpful the room was very nice . comfortable bed plenty of pillows which is a plus for me it was also nice to have a separate sitting area. we watched a movie and it was nice that everyone had a seat.  room was clean. The separate bathroom a d shower was nice also. I will definitely stay here again.  the only problem I had on this trip was the card reader had issues trying to get in the back door other than that everything was greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r238990984-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>238990984</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel a couple of times because the location is perfect for my job. I was absolutely delighted with my stay this time. The young lady who checked me in (I believe Megan) actually remembered my name from previous stays (I've only stayed 2 or 3 times, but my name is odd). She was very sweet and competent. I ended up losing my room key which ended up being quite fortuitous. I didn't realize that I had booked my room for one night too many. When I asked for a copy, the young lady at the front desk (Heather this time) actually LISTENED to my babbling and noticed that I wasn't due to check out until the following day. During the time that she helped me fix the problem (not a big deal) I watched her deal with 3 or 4 other minor situations and I can't say enough how impressed I was. In my job I get quite dirty and I frequently encounter extremely condescending attitudes. Heather not only noticed something that would have caused me problems at work, but was sweet and competent to not only me but to the other people I saw and heard her interact with. Thank you Heather!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel a couple of times because the location is perfect for my job. I was absolutely delighted with my stay this time. The young lady who checked me in (I believe Megan) actually remembered my name from previous stays (I've only stayed 2 or 3 times, but my name is odd). She was very sweet and competent. I ended up losing my room key which ended up being quite fortuitous. I didn't realize that I had booked my room for one night too many. When I asked for a copy, the young lady at the front desk (Heather this time) actually LISTENED to my babbling and noticed that I wasn't due to check out until the following day. During the time that she helped me fix the problem (not a big deal) I watched her deal with 3 or 4 other minor situations and I can't say enough how impressed I was. In my job I get quite dirty and I frequently encounter extremely condescending attitudes. Heather not only noticed something that would have caused me problems at work, but was sweet and competent to not only me but to the other people I saw and heard her interact with. Thank you Heather!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r226152411-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>226152411</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Short staffed facility</t>
+  </si>
+  <si>
+    <t>Upon arrival there were two desk clerks that had multiple people checking in and multiple calls on hold.  They were having to write names down on a call back list that looked as if it is used frequently.  The clerks were harried but apologetic for our exceedingly long wait.  The hotel was clean but the decor is quite tacky. Our room was big enough but I did not do my homework and found that there was a shower only. No tub. At about 7:45 the next morning the fire alarms went off and the incessant buzzing continued until the fire department arrived. A waffle iron was reported to have set off the alarm. Since all guests were awake everyone converged on the food area which rapidly ran out of most of the breakfast staples including coffee and utensils. No breakfast meats or eggs. There was only one person working the kitchen and she was unable to keep up with the unexpected breakfast rush. Another example of understaffing.   At checkout there was no apology for the inconvenience. This would not have been my choice for a hotel to begin with but we stayed there because it was close to the venue that we would be going to. Won't do that again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Upon arrival there were two desk clerks that had multiple people checking in and multiple calls on hold.  They were having to write names down on a call back list that looked as if it is used frequently.  The clerks were harried but apologetic for our exceedingly long wait.  The hotel was clean but the decor is quite tacky. Our room was big enough but I did not do my homework and found that there was a shower only. No tub. At about 7:45 the next morning the fire alarms went off and the incessant buzzing continued until the fire department arrived. A waffle iron was reported to have set off the alarm. Since all guests were awake everyone converged on the food area which rapidly ran out of most of the breakfast staples including coffee and utensils. No breakfast meats or eggs. There was only one person working the kitchen and she was unable to keep up with the unexpected breakfast rush. Another example of understaffing.   At checkout there was no apology for the inconvenience. This would not have been my choice for a hotel to begin with but we stayed there because it was close to the venue that we would be going to. Won't do that again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r225799533-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>225799533</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Lovely Small-town stay!</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel during a road trip in Texas.  Check-in was great.  Austin, the desk clerk, was happy, polite and helpful.  Our room was great, loved the size, the bed was comfortable, the amenities were great.  Having a water closet for the toilet and a hand-washing sink, separate from the shower and sink with vanity is very convenient.  The microwave and plates and utensils available were very much appreciated. Free breakfast was plentiful and delicious, even though we got there toward the end.  We ate outside on the patio and it was lovely. We could have definitely stayed here longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel during a road trip in Texas.  Check-in was great.  Austin, the desk clerk, was happy, polite and helpful.  Our room was great, loved the size, the bed was comfortable, the amenities were great.  Having a water closet for the toilet and a hand-washing sink, separate from the shower and sink with vanity is very convenient.  The microwave and plates and utensils available were very much appreciated. Free breakfast was plentiful and delicious, even though we got there toward the end.  We ate outside on the patio and it was lovely. We could have definitely stayed here longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r220142969-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>220142969</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Great Place to stay for business.</t>
+  </si>
+  <si>
+    <t>I have stayed at this location on three occasions and all have been very good.  Rooms are new and clean.  Staff is very nice.  The location feels safe and that is sometimes hit or miss in the Houston area.  I prefer to stay a little outside of town to save some money on the old expense report and this hotel is a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this location on three occasions and all have been very good.  Rooms are new and clean.  Staff is very nice.  The location feels safe and that is sometimes hit or miss in the Houston area.  I prefer to stay a little outside of town to save some money on the old expense report and this hotel is a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r215772401-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>215772401</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I travel a lot, and can't tell you how much I enjoyed my stay at SHS in Rosenberg. The staff was remarkable, and went out of the way to make sure everything was perfect. I really like the layout of the room, and felt like I was in a high end hotel. Fridge, microwave, and very usable desk made it perfect for me.Additionally, I rented a room for a meeting, and it was perfect. The location was convenient for people coming from all over the area. The room was quiet and comfortable. Matt was awesome at answering my questions, and made everything so easy for us. Even our attendees remarked how nice the staff was.The facility seems like it is brand new. The buffet was great, and parking was plentiful There was a ton of shopping in the area. And the best part was how inexpensive the hotel was. A great value worth much more than their rates indicate.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Matto79TX, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>I travel a lot, and can't tell you how much I enjoyed my stay at SHS in Rosenberg. The staff was remarkable, and went out of the way to make sure everything was perfect. I really like the layout of the room, and felt like I was in a high end hotel. Fridge, microwave, and very usable desk made it perfect for me.Additionally, I rented a room for a meeting, and it was perfect. The location was convenient for people coming from all over the area. The room was quiet and comfortable. Matt was awesome at answering my questions, and made everything so easy for us. Even our attendees remarked how nice the staff was.The facility seems like it is brand new. The buffet was great, and parking was plentiful There was a ton of shopping in the area. And the best part was how inexpensive the hotel was. A great value worth much more than their rates indicate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r212376733-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>212376733</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>Staff is extra friendly and helpful.  As usual, Springhill Suites by Marriott keeps the bar high with great rooms and customer service at decent prices!!!  Large spacious rooms, nice amenities, and hot complementary breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Matto79TX, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Staff is extra friendly and helpful.  As usual, Springhill Suites by Marriott keeps the bar high with great rooms and customer service at decent prices!!!  Large spacious rooms, nice amenities, and hot complementary breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r211578764-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>211578764</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>A GREAT place to stay, coupled with OUTSTANDING service!</t>
+  </si>
+  <si>
+    <t>When my travels, whether business or personal, guides me to the Houston area, I will only stay at the SpringHill in Rosenberg. I've stayed at this location for a multitude of reasons and I cannot compliment the staff enough on the outstanding service. Whether it was the friendly face greeting me at 3am or the informative employees during the daytime hours, you truly feel welcomed.Beyond the flawless guest service I receive when entering the hotel, the main thing people care about is the cleanliness. Being in the hotel industry, I pick apart every room I stay in across the globe and I can easily say this one passes my inspection.Never do I need to worry about sleeping in a clean, comfortable bed, or walking barefoot through the room. The room is immaculate and perfect.I highly recommend this SpringHill in your travels, the staffing alone will make you feel you made a great decision. Also, if you stay during the holidays make sure to check out the 8ft. penguin in the lobby, nothing beats a good chuckle during the holiday hustle!Keep up the great work in Rosenberg!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Matto79TX, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>When my travels, whether business or personal, guides me to the Houston area, I will only stay at the SpringHill in Rosenberg. I've stayed at this location for a multitude of reasons and I cannot compliment the staff enough on the outstanding service. Whether it was the friendly face greeting me at 3am or the informative employees during the daytime hours, you truly feel welcomed.Beyond the flawless guest service I receive when entering the hotel, the main thing people care about is the cleanliness. Being in the hotel industry, I pick apart every room I stay in across the globe and I can easily say this one passes my inspection.Never do I need to worry about sleeping in a clean, comfortable bed, or walking barefoot through the room. The room is immaculate and perfect.I highly recommend this SpringHill in your travels, the staffing alone will make you feel you made a great decision. Also, if you stay during the holidays make sure to check out the 8ft. penguin in the lobby, nothing beats a good chuckle during the holiday hustle!Keep up the great work in Rosenberg!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r209561776-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>209561776</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Not Up To Marriott Standards</t>
+  </si>
+  <si>
+    <t>I travel frequently and am committed to the Marriott brand.  I recently stayed 3 nights in this hotel and was disappointed with a few things.  1. I arrived at the hotel at around 7 pm to find no attendant at the front desk.  I waited approximately 5-7 minutes for the attendant to arrive and check me in.  During my stay, I noticed an empty front desk with customers waiting on several occasions.  2. My room had stains on the carpet and both pink and black mold in the corners of the shower.  I kept thinking the cleaning crew will notice these issues and they will be corrected once I return.  Nope.  3. The restroom next to the fitness center was not clean and had an awful smell.  To be fair, the smell may be sewer line related but here again, the cleanliness just was not up to par.  The hotel is beautiful but someone from Marriott coporate needs to perform an unannounced pop in visit to ensure company standards are maintained.  These are easy things to address and once done, I will be happy to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matto79TX, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>I travel frequently and am committed to the Marriott brand.  I recently stayed 3 nights in this hotel and was disappointed with a few things.  1. I arrived at the hotel at around 7 pm to find no attendant at the front desk.  I waited approximately 5-7 minutes for the attendant to arrive and check me in.  During my stay, I noticed an empty front desk with customers waiting on several occasions.  2. My room had stains on the carpet and both pink and black mold in the corners of the shower.  I kept thinking the cleaning crew will notice these issues and they will be corrected once I return.  Nope.  3. The restroom next to the fitness center was not clean and had an awful smell.  To be fair, the smell may be sewer line related but here again, the cleanliness just was not up to par.  The hotel is beautiful but someone from Marriott coporate needs to perform an unannounced pop in visit to ensure company standards are maintained.  These are easy things to address and once done, I will be happy to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r207587811-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>207587811</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Clean and Comfy!!</t>
+  </si>
+  <si>
+    <t>We were in Rosenberg a couple of weeks ago for a birthday party and checked into another hotel that will give me nightmares for the rest of my life. We called around to find another hotel and all appeared booked with the exception of smoking rooms which we did not want. A relative of my husband's suggested this place and I can say enough good things especially for the price.  It was clean to the point of being sterile.  The front desk staff were nice and helpful.  The breakfast was welcoming.  Bottom line, for an economy hotel this place was tops and I will definitely stay here again when we visit.  Thanks so much to the SpringHill Suites of Rosenberg for saving us from the other not named hotel!! We marked the hotel location as very good because it was a little farther from my in-laws (not a big deal though) and kids activities/room service was rated lower too because they did not apply to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Rosenberg a couple of weeks ago for a birthday party and checked into another hotel that will give me nightmares for the rest of my life. We called around to find another hotel and all appeared booked with the exception of smoking rooms which we did not want. A relative of my husband's suggested this place and I can say enough good things especially for the price.  It was clean to the point of being sterile.  The front desk staff were nice and helpful.  The breakfast was welcoming.  Bottom line, for an economy hotel this place was tops and I will definitely stay here again when we visit.  Thanks so much to the SpringHill Suites of Rosenberg for saving us from the other not named hotel!! We marked the hotel location as very good because it was a little farther from my in-laws (not a big deal though) and kids activities/room service was rated lower too because they did not apply to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r205783141-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>205783141</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>SpringHill fills a niche for a nice euro feel!</t>
+  </si>
+  <si>
+    <t>I've become a big fan of SpringHill suites while on business travel, this location is no exception, very clean and crisp, the euro feel is a unique feel that reminds me of when I lived in Germany.  The room was solid, matching the pictures and current theme of the brand, and I appreciate it greatly.  Everything from the lighting to the decor makes me feel refreshed.  The breakfast was adequate, I liked the healthy turkey sausage, but it was left out cold and a bit over microwaved, so while disappointing, it was the only drawback to an otherwise comfortable stay.  I would seek this brand out again.  The particular location is great too, away from traffic but extremely close to the highway and a myriad of shopping and eating options.  I stayed here on 15 May 2014.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've become a big fan of SpringHill suites while on business travel, this location is no exception, very clean and crisp, the euro feel is a unique feel that reminds me of when I lived in Germany.  The room was solid, matching the pictures and current theme of the brand, and I appreciate it greatly.  Everything from the lighting to the decor makes me feel refreshed.  The breakfast was adequate, I liked the healthy turkey sausage, but it was left out cold and a bit over microwaved, so while disappointing, it was the only drawback to an otherwise comfortable stay.  I would seek this brand out again.  The particular location is great too, away from traffic but extremely close to the highway and a myriad of shopping and eating options.  I stayed here on 15 May 2014.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r195617510-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>195617510</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Stayed 2nights, room was very comfortable and appreciated the a/c working well in February as it was 80 outside! Staff was attentive, and room was comfortable, breakfast was ok. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Stayed 2nights, room was very comfortable and appreciated the a/c working well in February as it was 80 outside! Staff was attentive, and room was comfortable, breakfast was ok. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r194917585-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>194917585</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Matt who works here is the nicest person I have ever met. He ensures that my needs are met (I like the same room everytime I'm here)and ensures that everything is taken care of  I am pleased to stay here and recommend that anyone that is in need of a hotel while in the Rosenberg area to stay here prices are GREAT and the staff is awesome MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Matt who works here is the nicest person I have ever met. He ensures that my needs are met (I like the same room everytime I'm here)and ensures that everything is taken care of  I am pleased to stay here and recommend that anyone that is in need of a hotel while in the Rosenberg area to stay here prices are GREAT and the staff is awesome More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r193253009-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>193253009</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Wonderful experience during extended stay</t>
+  </si>
+  <si>
+    <t>My family traveled to Texas for the adoption of a newborn baby.  My husband, 3 year old son, newborn daughter, and I stayed at this hotel for one week.  The hotel staff members were all so warm and welcoming and accommodating to us during our stay.  They learned our names and went out of their way to meet our needs (bringing us extra towels, garbage bags, plates and utensils, faxing papers for us, providing change for the laundry facility, etc.).  The room had a nice separate sitting area with a desk and refrigerator and microwave, which really was helpful during our long stay.  The daily breakfast was your typical hot hotel breakfast.  The staff members working in the breakfast area were so nice and would greet us warmly and one even brought a coloring package to our toddler.  The hotel is located right next to a Kroger, gas station, and several restaurants (Panera, McDonalds), and the hotel is across the road from a Target and other stores and restaurants (Starbucks, Chick Fil A).  So the location is extremely convenient.  I highly recommend this hotel to anyone staying in the Sugar Land or Rosenberg area.MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>My family traveled to Texas for the adoption of a newborn baby.  My husband, 3 year old son, newborn daughter, and I stayed at this hotel for one week.  The hotel staff members were all so warm and welcoming and accommodating to us during our stay.  They learned our names and went out of their way to meet our needs (bringing us extra towels, garbage bags, plates and utensils, faxing papers for us, providing change for the laundry facility, etc.).  The room had a nice separate sitting area with a desk and refrigerator and microwave, which really was helpful during our long stay.  The daily breakfast was your typical hot hotel breakfast.  The staff members working in the breakfast area were so nice and would greet us warmly and one even brought a coloring package to our toddler.  The hotel is located right next to a Kroger, gas station, and several restaurants (Panera, McDonalds), and the hotel is across the road from a Target and other stores and restaurants (Starbucks, Chick Fil A).  So the location is extremely convenient.  I highly recommend this hotel to anyone staying in the Sugar Land or Rosenberg area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r186788656-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>186788656</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Mostly wonderful</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and have enjoyed every stay.  Friendly staff, good breakfast, great exercise room, and comfortable beds with nice furnishings.  My only issue, and I have experienced it with several new Springhill Suites, is that the white shower shows everything and they never seem real clean. Water spot buildup is getting very bad, and it leaks around the shower door with red mold.  Found in several rooms.  recommend better shower cleaning, but otherwise a good place to relax and do business.MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and have enjoyed every stay.  Friendly staff, good breakfast, great exercise room, and comfortable beds with nice furnishings.  My only issue, and I have experienced it with several new Springhill Suites, is that the white shower shows everything and they never seem real clean. Water spot buildup is getting very bad, and it leaks around the shower door with red mold.  Found in several rooms.  recommend better shower cleaning, but otherwise a good place to relax and do business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r185251455-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>185251455</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Lack of rooms</t>
+  </si>
+  <si>
+    <t>I stay 300 plus nights a year and try to pick quality hotels this time I failed and failed miserably the staff was not very courteous and when I wanted to extend after being there 39 days I need a 3 day extension a week in advance I was told sorry you will need to check out on scheduled date period end of story I morally seek out marriott bit no I will notable themy 1 st.thought  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stay 300 plus nights a year and try to pick quality hotels this time I failed and failed miserably the staff was not very courteous and when I wanted to extend after being there 39 days I need a 3 day extension a week in advance I was told sorry you will need to check out on scheduled date period end of story I morally seek out marriott bit no I will notable themy 1 st.thought  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r185063713-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>185063713</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Visit to family and friends</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, to the moment we checked out, the service was great.  Everyone was very hospitable.  The breakfast choices could be expanded but other than that, it was a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, to the moment we checked out, the service was great.  Everyone was very hospitable.  The breakfast choices could be expanded but other than that, it was a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r182238058-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>182238058</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Great value on a long term stay!</t>
+  </si>
+  <si>
+    <t>This Marriott property is definitely worth considering on your next stay in the SugarLand area.  It is only less then 10 mins south of the Sugarland Town Square area and much more affordable.  There is a large breakfast area with a limited choice for breakfast of eggs, fruit, cereal, rolls etc.  i stayed in a room with 2 queens and a couch area.  I always get a good nights sleep on the Marriott bedding!  Plenty of room  to not feel cramped at all.  The bathroom was handicap accessible and clean.  There is Brazos Town Square mall minutes away for easy access and you could walk to a few of the stores across the parking lot.  The GM Matt was very helpful in working with my needs for a longterm stay.  I did not have a chance to use the outdoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded November 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2013</t>
+  </si>
+  <si>
+    <t>This Marriott property is definitely worth considering on your next stay in the SugarLand area.  It is only less then 10 mins south of the Sugarland Town Square area and much more affordable.  There is a large breakfast area with a limited choice for breakfast of eggs, fruit, cereal, rolls etc.  i stayed in a room with 2 queens and a couch area.  I always get a good nights sleep on the Marriott bedding!  Plenty of room  to not feel cramped at all.  The bathroom was handicap accessible and clean.  There is Brazos Town Square mall minutes away for easy access and you could walk to a few of the stores across the parking lot.  The GM Matt was very helpful in working with my needs for a longterm stay.  I did not have a chance to use the outdoor pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r182161672-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>182161672</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>I stay here every time in houston</t>
+  </si>
+  <si>
+    <t>Excellent staff!  They really pay attention to details and know what it takes to make your stay comfortable!  i stay here every time I come to Houston.  Breakfast is very good for hotels in this price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent staff!  They really pay attention to details and know what it takes to make your stay comfortable!  i stay here every time I come to Houston.  Breakfast is very good for hotels in this price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r181609952-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>181609952</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>These folks know what how to treat guests!</t>
+  </si>
+  <si>
+    <t>My husband an I found this hotel several years ago, I believe close to its opening. We have NEVER considered staying anywhere else since. We are now 50-ish, so the retro decor appealed to us - it's like staying at the Jetsons' house! We visit family there once or twice a year and their customer service has been not only outstanding but consistent. The rooms are great, and the staff is always pleasant and accommodating. It's right next to a large mall, ample restaurants and Hwy 59. The only "bad" experience we ever had was one time when they had apparently not planned on so many guests partaking of the complimentary continental breakfast. They did their best to correct the issue at the time and we personally have never seen this same mistake recur. On our last visit, we had gotten there very early to watch a parade. Since we had been on the road since 4:30 a.m., we were tired. I called to see if it would be possible to check in early without any additional fee. The room was ready and we were welcomed to check in at ten a.m.! THAT is "accommodation!" AND there have been one or two times I needed to add or delete a reservation at the very last minute - no problem and all staff know how to extend service with a smile. This is truly our home away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My husband an I found this hotel several years ago, I believe close to its opening. We have NEVER considered staying anywhere else since. We are now 50-ish, so the retro decor appealed to us - it's like staying at the Jetsons' house! We visit family there once or twice a year and their customer service has been not only outstanding but consistent. The rooms are great, and the staff is always pleasant and accommodating. It's right next to a large mall, ample restaurants and Hwy 59. The only "bad" experience we ever had was one time when they had apparently not planned on so many guests partaking of the complimentary continental breakfast. They did their best to correct the issue at the time and we personally have never seen this same mistake recur. On our last visit, we had gotten there very early to watch a parade. Since we had been on the road since 4:30 a.m., we were tired. I called to see if it would be possible to check in early without any additional fee. The room was ready and we were welcomed to check in at ten a.m.! THAT is "accommodation!" AND there have been one or two times I needed to add or delete a reservation at the very last minute - no problem and all staff know how to extend service with a smile. This is truly our home away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r168199629-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>168199629</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Moving Trip</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at this hotel during her move from her apartment in nearby Richmond Tx back home to Milwaukee.  Check in at this hotel was very efficient and friendly; room was excellent (spacious with a separate bathroom and shower area); sitting room very comfortable; microwave and small refrigerator.  Morning breakfast was good with plenty of selections.  Dining area was large enough to accommodate everyone comfortably.  Parking was excellent and safe.  Shopping area nearby along with restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at this hotel during her move from her apartment in nearby Richmond Tx back home to Milwaukee.  Check in at this hotel was very efficient and friendly; room was excellent (spacious with a separate bathroom and shower area); sitting room very comfortable; microwave and small refrigerator.  Morning breakfast was good with plenty of selections.  Dining area was large enough to accommodate everyone comfortably.  Parking was excellent and safe.  Shopping area nearby along with restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r165185834-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>165185834</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Customer Service Front Desk - Service VERY POOR</t>
+  </si>
+  <si>
+    <t>6/23/13 - Check in provided my credit card for my 2 night stay and gave CASH for all extras. The point in leaving cash was for extra's was to avoid extra charges to my credit card and I made myself CLEAR UPON CECH-IN... That didn't help. There was a hold for MORE  than my  initial 2 night stay.  NOT acceptable after being very clear up front.
+6/24/13 - I was up late working on a presentation and went down stairs at 4am CST. Per the guest services book it states the following " "coffee services is available in the lobby area 24 hours a day".. Coffee wasn't there. I asked the female who was preparing breakfast about it, she stated the following " I don't leave the coffee out because each morning I came in there is a mess and the coffee isn't even cold.  On my to do list I'm scheduled to do something else BUT  If you come back in 10 minutes I'll have it out"... I told her I was only going by the guest book in the room.  She then stated "I know what it says"... NOW clearly this problem can be resolved without inconveniencing a guest..  Each front desk agents can walk over to the coffee area every hour,  clean the area and ensure that FRESH coffee is there.  Very Simple !!!
+6/24/13 - Upon checking out I was told before we can return your...6/23/13 - Check in provided my credit card for my 2 night stay and gave CASH for all extras. The point in leaving cash was for extra's was to avoid extra charges to my credit card and I made myself CLEAR UPON CECH-IN... That didn't help. There was a hold for MORE  than my  initial 2 night stay.  NOT acceptable after being very clear up front.6/24/13 - I was up late working on a presentation and went down stairs at 4am CST. Per the guest services book it states the following " "coffee services is available in the lobby area 24 hours a day".. Coffee wasn't there. I asked the female who was preparing breakfast about it, she stated the following " I don't leave the coffee out because each morning I came in there is a mess and the coffee isn't even cold.  On my to do list I'm scheduled to do something else BUT  If you come back in 10 minutes I'll have it out"... I told her I was only going by the guest book in the room.  She then stated "I know what it says"... NOW clearly this problem can be resolved without inconveniencing a guest..  Each front desk agents can walk over to the coffee area every hour,  clean the area and ensure that FRESH coffee is there.  Very Simple !!!6/24/13 - Upon checking out I was told before we can return your cash that you put down a manager has to go check your room.  I then asked why is that? I was told "because you left cash and we didn't add the extra charge to your credit card where we'll still have your information when you leave.  Before we can return your cash the manager has to check your room before you leave... [--].. I've been a Marriott rewards member for many, many years and have stay at many properties within the USA and 90% of the time I leave CASH for any extra's NEVER ONCE has this ever been done..  Keep in mind the hotel had already placed and extra hold beyond the total cost of the 2 night stay.   - Clearly they didn't get the point of the cash being on file... A guest should never have to wait to check out.  NOT ACCPETABLEMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>6/23/13 - Check in provided my credit card for my 2 night stay and gave CASH for all extras. The point in leaving cash was for extra's was to avoid extra charges to my credit card and I made myself CLEAR UPON CECH-IN... That didn't help. There was a hold for MORE  than my  initial 2 night stay.  NOT acceptable after being very clear up front.
+6/24/13 - I was up late working on a presentation and went down stairs at 4am CST. Per the guest services book it states the following " "coffee services is available in the lobby area 24 hours a day".. Coffee wasn't there. I asked the female who was preparing breakfast about it, she stated the following " I don't leave the coffee out because each morning I came in there is a mess and the coffee isn't even cold.  On my to do list I'm scheduled to do something else BUT  If you come back in 10 minutes I'll have it out"... I told her I was only going by the guest book in the room.  She then stated "I know what it says"... NOW clearly this problem can be resolved without inconveniencing a guest..  Each front desk agents can walk over to the coffee area every hour,  clean the area and ensure that FRESH coffee is there.  Very Simple !!!
+6/24/13 - Upon checking out I was told before we can return your...6/23/13 - Check in provided my credit card for my 2 night stay and gave CASH for all extras. The point in leaving cash was for extra's was to avoid extra charges to my credit card and I made myself CLEAR UPON CECH-IN... That didn't help. There was a hold for MORE  than my  initial 2 night stay.  NOT acceptable after being very clear up front.6/24/13 - I was up late working on a presentation and went down stairs at 4am CST. Per the guest services book it states the following " "coffee services is available in the lobby area 24 hours a day".. Coffee wasn't there. I asked the female who was preparing breakfast about it, she stated the following " I don't leave the coffee out because each morning I came in there is a mess and the coffee isn't even cold.  On my to do list I'm scheduled to do something else BUT  If you come back in 10 minutes I'll have it out"... I told her I was only going by the guest book in the room.  She then stated "I know what it says"... NOW clearly this problem can be resolved without inconveniencing a guest..  Each front desk agents can walk over to the coffee area every hour,  clean the area and ensure that FRESH coffee is there.  Very Simple !!!6/24/13 - Upon checking out I was told before we can return your cash that you put down a manager has to go check your room.  I then asked why is that? I was told "because you left cash and we didn't add the extra charge to your credit card where we'll still have your information when you leave.  Before we can return your cash the manager has to check your room before you leave... [--].. I've been a Marriott rewards member for many, many years and have stay at many properties within the USA and 90% of the time I leave CASH for any extra's NEVER ONCE has this ever been done..  Keep in mind the hotel had already placed and extra hold beyond the total cost of the 2 night stay.   - Clearly they didn't get the point of the cash being on file... A guest should never have to wait to check out.  NOT ACCPETABLEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r162619639-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>162619639</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Great Place to stay!</t>
+  </si>
+  <si>
+    <t>I bring my wife and 2 boys here often just to get away from the house for a day or two.  The location is great, not right in the heart of the hustle of Houston, but conveniently located next great shopping and dining.  Houston is just a short drive down.  The hotel itself is always very clean, and the prices are competitive for the area.  The hotel is very modern and the rooms are roomy and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>I bring my wife and 2 boys here often just to get away from the house for a day or two.  The location is great, not right in the heart of the hustle of Houston, but conveniently located next great shopping and dining.  Houston is just a short drive down.  The hotel itself is always very clean, and the prices are competitive for the area.  The hotel is very modern and the rooms are roomy and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r155736118-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>155736118</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>SpringHill Suites Houston Rosenberg Hotel</t>
+  </si>
+  <si>
+    <t>This hotel books up so if you need this location, think about booking in advance.  We had no idea that the Houston hotels book up.  We planned on staying at a different hotel each night depending on our location as we were there researching the area for possible relocation.  When I first called this hotel they were booked but for some reason I accidentally dailed them again and the handicapped room with two queen beds was available.  We had been booking two rooms, 1 for my dad which would be handicapped and 1 for us, King bed.  Since we arrived late and needed the room, we took it.  The room was clean and spacious and perfect for the business traveler.  The toilet was in a separate area from the tub and vanity which was nice and they had a bar and desk, both lighted, which was nice.  The problem is that it was not truely handicapped.  There was no grab bar in the toilet area and there were no shower chairs which made it very hard on my father to bathe.  The breakfast was adequate and the front desk staff were friendly and helpful.  Everything was clean and in good order.  The beds were comfortable enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>SpringhillSuitesDOS, Director of Sales at SpringHill Suites Houston Rosenberg, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel books up so if you need this location, think about booking in advance.  We had no idea that the Houston hotels book up.  We planned on staying at a different hotel each night depending on our location as we were there researching the area for possible relocation.  When I first called this hotel they were booked but for some reason I accidentally dailed them again and the handicapped room with two queen beds was available.  We had been booking two rooms, 1 for my dad which would be handicapped and 1 for us, King bed.  Since we arrived late and needed the room, we took it.  The room was clean and spacious and perfect for the business traveler.  The toilet was in a separate area from the tub and vanity which was nice and they had a bar and desk, both lighted, which was nice.  The problem is that it was not truely handicapped.  There was no grab bar in the toilet area and there were no shower chairs which made it very hard on my father to bathe.  The breakfast was adequate and the front desk staff were friendly and helpful.  Everything was clean and in good order.  The beds were comfortable enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r155568317-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>155568317</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>WONDERFUL SUITE - GREAT PRICE</t>
+  </si>
+  <si>
+    <t>This hotel is great for family or business travel.  We had 2 queen beds and a separate living area/office space.  There was a lot of space so the 3 of us did not feel cramped. The bath/shower had a lot of hot water and full blasting shower.  The toilet and an extra sink were in a separate room so two could get ready at the same time in the morning without having to wait on the sink.  Nice cold a/c.  The complimentary breakfast was well stocked with everything from cereal, fruit, pastries to eggs, ham, waffles and drinks included coffees, juices, milks and water.  The hotel was clean, beds very comfortable and they even provided a microwave and mini fridge in the room.  The staff was friendly and checking in and out a breeze.  The price was really great and it is close to the fairgrounds, mall. local restaurants and freeway.  For the price, it can't be beat!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is great for family or business travel.  We had 2 queen beds and a separate living area/office space.  There was a lot of space so the 3 of us did not feel cramped. The bath/shower had a lot of hot water and full blasting shower.  The toilet and an extra sink were in a separate room so two could get ready at the same time in the morning without having to wait on the sink.  Nice cold a/c.  The complimentary breakfast was well stocked with everything from cereal, fruit, pastries to eggs, ham, waffles and drinks included coffees, juices, milks and water.  The hotel was clean, beds very comfortable and they even provided a microwave and mini fridge in the room.  The staff was friendly and checking in and out a breeze.  The price was really great and it is close to the fairgrounds, mall. local restaurants and freeway.  For the price, it can't be beat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r155556066-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>155556066</t>
+  </si>
+  <si>
+    <t>Well kept and looks new</t>
+  </si>
+  <si>
+    <t>There are pro's and con's to SpringHill Suites /Marriott Hotel in Rosenberg.
+The con's:
+-There is a freight train not too far that runs constantly all thought out the night.
+-Bathroom is split into 2 rooms, one with toilet and sink, second with shower and another vanity/sink = odd layout.
+-Shower area only has 1 hook for towels.
+-Wind whips around the building creating more noise.
+-There is a vent outside that keeps opening and clanging shut = loud and annoying.
+-The pool is outside.
+-Breakfast is standard, normal, boring variety, with limited options for fresh fruit and oat meal is served cold.
+-Bed pillows are awful, small, soft and does not support your neck for reading and/or viewing tv.
+-Beds could use a splash of color and additional warmth with temps are chilly = thin sheets.
+The pro's:
++ The price to stay is affordable.
++ Surrounding area offers shopping, food and quite a lot of things to do.
++ The sitting area is a nice area in the rooms, the Tv rotates for viewing from bed or couch.
++ Downstairs lounge is a nice area for after hour hanging out.
++ Breakfast hours are long and waffles are made in the shape of the state of Texas.
++ Rooms are well maintained and clean, even though hotel was completed in 2009 = surprisingly clean and fresh decorations.
++ Each room has a microwave, coffee maker, mini fridge, free-standing...There are pro's and con's to SpringHill Suites /Marriott Hotel in Rosenberg.The con's:-There is a freight train not too far that runs constantly all thought out the night.-Bathroom is split into 2 rooms, one with toilet and sink, second with shower and another vanity/sink = odd layout.-Shower area only has 1 hook for towels.-Wind whips around the building creating more noise.-There is a vent outside that keeps opening and clanging shut = loud and annoying.-The pool is outside.-Breakfast is standard, normal, boring variety, with limited options for fresh fruit and oat meal is served cold.-Bed pillows are awful, small, soft and does not support your neck for reading and/or viewing tv.-Beds could use a splash of color and additional warmth with temps are chilly = thin sheets.The pro's:+ The price to stay is affordable.+ Surrounding area offers shopping, food and quite a lot of things to do.+ The sitting area is a nice area in the rooms, the Tv rotates for viewing from bed or couch.+ Downstairs lounge is a nice area for after hour hanging out.+ Breakfast hours are long and waffles are made in the shape of the state of Texas.+ Rooms are well maintained and clean, even though hotel was completed in 2009 = surprisingly clean and fresh decorations.+ Each room has a microwave, coffee maker, mini fridge, free-standing closet and iron &amp; iron board.+ Above heater/ac they built a wood ledge that easily holds suitcases and lets guests move around the room easily.+ The workout room is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are pro's and con's to SpringHill Suites /Marriott Hotel in Rosenberg.
+The con's:
+-There is a freight train not too far that runs constantly all thought out the night.
+-Bathroom is split into 2 rooms, one with toilet and sink, second with shower and another vanity/sink = odd layout.
+-Shower area only has 1 hook for towels.
+-Wind whips around the building creating more noise.
+-There is a vent outside that keeps opening and clanging shut = loud and annoying.
+-The pool is outside.
+-Breakfast is standard, normal, boring variety, with limited options for fresh fruit and oat meal is served cold.
+-Bed pillows are awful, small, soft and does not support your neck for reading and/or viewing tv.
+-Beds could use a splash of color and additional warmth with temps are chilly = thin sheets.
+The pro's:
++ The price to stay is affordable.
++ Surrounding area offers shopping, food and quite a lot of things to do.
++ The sitting area is a nice area in the rooms, the Tv rotates for viewing from bed or couch.
++ Downstairs lounge is a nice area for after hour hanging out.
++ Breakfast hours are long and waffles are made in the shape of the state of Texas.
++ Rooms are well maintained and clean, even though hotel was completed in 2009 = surprisingly clean and fresh decorations.
++ Each room has a microwave, coffee maker, mini fridge, free-standing...There are pro's and con's to SpringHill Suites /Marriott Hotel in Rosenberg.The con's:-There is a freight train not too far that runs constantly all thought out the night.-Bathroom is split into 2 rooms, one with toilet and sink, second with shower and another vanity/sink = odd layout.-Shower area only has 1 hook for towels.-Wind whips around the building creating more noise.-There is a vent outside that keeps opening and clanging shut = loud and annoying.-The pool is outside.-Breakfast is standard, normal, boring variety, with limited options for fresh fruit and oat meal is served cold.-Bed pillows are awful, small, soft and does not support your neck for reading and/or viewing tv.-Beds could use a splash of color and additional warmth with temps are chilly = thin sheets.The pro's:+ The price to stay is affordable.+ Surrounding area offers shopping, food and quite a lot of things to do.+ The sitting area is a nice area in the rooms, the Tv rotates for viewing from bed or couch.+ Downstairs lounge is a nice area for after hour hanging out.+ Breakfast hours are long and waffles are made in the shape of the state of Texas.+ Rooms are well maintained and clean, even though hotel was completed in 2009 = surprisingly clean and fresh decorations.+ Each room has a microwave, coffee maker, mini fridge, free-standing closet and iron &amp; iron board.+ Above heater/ac they built a wood ledge that easily holds suitcases and lets guests move around the room easily.+ The workout room is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r151023308-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>151023308</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>A blessed patron!!</t>
+  </si>
+  <si>
+    <t>My husband and I discovered this beautiful property first in the Woodlands, TX. Each stay there was remarkable from the staff, service, rooms and food. I recently started staying at the property in Rosenberg, TX and was very much pleased as I had been at the Woodlands property previously. My experience at the Rosenberg was far greater and most memorable because I had been going through a tough time in my marriage and my children and I needed somewhere to stay while things got worked out. The staff members Anna (hotel management), Patrick and Alison all made me feel more than welcome and their personal accommodations made my stay even more comfortable. I usually always plan to write reviews for great service, but never find the time. I have to say that these people were such a God send and they truly make this property a shining diamond. Each time that I have stayed at the property, it was well maintained, clean and all staff members from maintenance to house keeping all very hospitable. The environment and decor is very inviting and the surrounding area is great because there is everything at your access from the cinema, markets, gas stations, eatery, shopping, etc. I would recommend this hotel thumbs up to anyone for leisure, business or play. The room prices are affordable and you get way more than what you pay for! A blessed patron!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My husband and I discovered this beautiful property first in the Woodlands, TX. Each stay there was remarkable from the staff, service, rooms and food. I recently started staying at the property in Rosenberg, TX and was very much pleased as I had been at the Woodlands property previously. My experience at the Rosenberg was far greater and most memorable because I had been going through a tough time in my marriage and my children and I needed somewhere to stay while things got worked out. The staff members Anna (hotel management), Patrick and Alison all made me feel more than welcome and their personal accommodations made my stay even more comfortable. I usually always plan to write reviews for great service, but never find the time. I have to say that these people were such a God send and they truly make this property a shining diamond. Each time that I have stayed at the property, it was well maintained, clean and all staff members from maintenance to house keeping all very hospitable. The environment and decor is very inviting and the surrounding area is great because there is everything at your access from the cinema, markets, gas stations, eatery, shopping, etc. I would recommend this hotel thumbs up to anyone for leisure, business or play. The room prices are affordable and you get way more than what you pay for! A blessed patron!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r148328047-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>148328047</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We really enjoyed the European feel of our room. Nice, clean functional lines.  The room is large enough to entertain guests, comfortable and practical work area.  The colors are bright and happy. Reasonably priced, but still not my favorite chain for rooms in this class.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Anna H, Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded January 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2013</t>
+  </si>
+  <si>
+    <t>We really enjoyed the European feel of our room. Nice, clean functional lines.  The room is large enough to entertain guests, comfortable and practical work area.  The colors are bright and happy. Reasonably priced, but still not my favorite chain for rooms in this class.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r146768415-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>146768415</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>Retro Surprise!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Write a lot of negative reviews, but this is not one of them.  Surprised and pleased at the unusual Retro interior.  Great value and would stay there again in a minute.  No issues and again the decor was interesting for a change.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Amy G, Guest Relations Manager at SpringHill Suites Houston Rosenberg, responded to this reviewResponded December 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2012</t>
+  </si>
+  <si>
+    <t>Write a lot of negative reviews, but this is not one of them.  Surprised and pleased at the unusual Retro interior.  Great value and would stay there again in a minute.  No issues and again the decor was interesting for a change.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r144612728-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>144612728</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>What a place!</t>
+  </si>
+  <si>
+    <t>Springhill knows how to treat a traveler right!  The lobbys are great, from the seating to the staff at the desk, always fresh and friendly.  The rooms are very nice, separate toilet area from the shower area - and the shower area has full glass wall with hot water!  Would recommend this hotel to anyone.  Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Springhill knows how to treat a traveler right!  The lobbys are great, from the seating to the staff at the desk, always fresh and friendly.  The rooms are very nice, separate toilet area from the shower area - and the shower area has full glass wall with hot water!  Would recommend this hotel to anyone.  Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r143524179-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>143524179</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay!</t>
+  </si>
+  <si>
+    <t>I can't think of a bad thing to say about our  stay!!! You definitely get your moneys worth!! Complimentry breakfast and friendly staff!! Great location surrounded by a shopping center and lots of restaurants!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't think of a bad thing to say about our  stay!!! You definitely get your moneys worth!! Complimentry breakfast and friendly staff!! Great location surrounded by a shopping center and lots of restaurants!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r143493227-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>143493227</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>Stayed here during the county fair. The decor of the lobby and the rooms is very modern and very nice. The front desk staff was also incredibly friendly. I would stay here again without question! I highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here during the county fair. The decor of the lobby and the rooms is very modern and very nice. The front desk staff was also incredibly friendly. I would stay here again without question! I highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r135345770-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>135345770</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>This is not the first time I have stayed at this here, but this is the first review that I have written about this property.  Let me begin by saying that I would recommend this to hotel to everyone.  From the moment you enter the front doors the staff is very welcoming and eager to please.  The lobby is inviting, and always clean.  The rooms are very spacious and welcoming after a day of work.  The beds are really comfortable and provide a great nights sleep.  I'm not a breakfast person, but the lobby is always full of guests eating breakfast.The hotel is located in a wonderful location.  You can find all types of eateries and shops.The only negative, some vandal decided to etch some vulgar words in one of the elevator walls.  I would hope that the hotel will have his fixed by my next stay.Will be back for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This is not the first time I have stayed at this here, but this is the first review that I have written about this property.  Let me begin by saying that I would recommend this to hotel to everyone.  From the moment you enter the front doors the staff is very welcoming and eager to please.  The lobby is inviting, and always clean.  The rooms are very spacious and welcoming after a day of work.  The beds are really comfortable and provide a great nights sleep.  I'm not a breakfast person, but the lobby is always full of guests eating breakfast.The hotel is located in a wonderful location.  You can find all types of eateries and shops.The only negative, some vandal decided to etch some vulgar words in one of the elevator walls.  I would hope that the hotel will have his fixed by my next stay.Will be back for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r134849848-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>134849848</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>I had to work an event over a weekend at the George Ranch, and rather than commute 40 miles back and forth several times, I just decided to book a room locally.  The SpringHill Suites is a new property, and the price was perfect.It is clearly a business travel style hotel, and so I was really surprised to find how much I liked it.  It is modern, airy, and clean, and the lobby is very welcoming to those traveling alone.  But the best part was my room.  It is a small suite with separate living and sleeping areas divided by a desk.  I only stayed one night, but could easily be comfortable for more than that if needed.  The bed was one of the most comfortable beds I've ever slept on!  I didn't want to leave.  I felt like it was at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I had to work an event over a weekend at the George Ranch, and rather than commute 40 miles back and forth several times, I just decided to book a room locally.  The SpringHill Suites is a new property, and the price was perfect.It is clearly a business travel style hotel, and so I was really surprised to find how much I liked it.  It is modern, airy, and clean, and the lobby is very welcoming to those traveling alone.  But the best part was my room.  It is a small suite with separate living and sleeping areas divided by a desk.  I only stayed one night, but could easily be comfortable for more than that if needed.  The bed was one of the most comfortable beds I've ever slept on!  I didn't want to leave.  I felt like it was at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r134036807-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>134036807</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>A fit for purpose place to stay</t>
+  </si>
+  <si>
+    <t>I stain in this hotel for three weeks in June. The hotel is located in new developed area and you can find a big hyper market (Kroger) at a few steps from the hotel. The staff is very friendly and they will always try to assist. There is one side of the hotel which is facing a train railway which is very noisy specially during night, therefore I would recommend to request a room to be away from the train railway which I found it OKMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I stain in this hotel for three weeks in June. The hotel is located in new developed area and you can find a big hyper market (Kroger) at a few steps from the hotel. The staff is very friendly and they will always try to assist. There is one side of the hotel which is facing a train railway which is very noisy specially during night, therefore I would recommend to request a room to be away from the train railway which I found it OKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r124411321-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>124411321</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>awsome long term stay</t>
+  </si>
+  <si>
+    <t>I actually do some advertising for this marriot location, it is one of the most accomodating hotels that I've ever stayed in.  I definately recommend this place to long termers, short stayers, family visits, vacations.  I will put this on top 5 ive stayed in, over 6 years of travel.SincerelyMichael O'BrienRegal PrintingMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I actually do some advertising for this marriot location, it is one of the most accomodating hotels that I've ever stayed in.  I definately recommend this place to long termers, short stayers, family visits, vacations.  I will put this on top 5 ive stayed in, over 6 years of travel.SincerelyMichael O'BrienRegal PrintingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r121522825-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>121522825</t>
+  </si>
+  <si>
+    <t>12/08/2011</t>
+  </si>
+  <si>
+    <t>Brand New! Terrific Rooms and Service- Nearby Trains Running</t>
+  </si>
+  <si>
+    <t>Much more than I expected in Rosenberg, TX. Brand New Building and modern rooms. Very friendly staff, easyt parking, free breakfast, large tv in rooms, etc... One downside- train runs throughout the night and is very close. If you are a heavy sleeper it wont be a problem, however it was for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Much more than I expected in Rosenberg, TX. Brand New Building and modern rooms. Very friendly staff, easyt parking, free breakfast, large tv in rooms, etc... One downside- train runs throughout the night and is very close. If you are a heavy sleeper it wont be a problem, however it was for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r119841056-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>119841056</t>
+  </si>
+  <si>
+    <t>10/28/2011</t>
+  </si>
+  <si>
+    <t>Good Choice in Rosenberg</t>
+  </si>
+  <si>
+    <t>We found the SpringHill Suites through Tripadvisor reviews while traveling last year.  On our stay last week, we found the hotel to still be a very good choice.  This is always a one night stop on our way to south Texas so we haven't taken advantage of the amenities except for the free Wi-fi, but it's very convenient on and off the interstate.  A great value for the money.  We'll stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We found the SpringHill Suites through Tripadvisor reviews while traveling last year.  On our stay last week, we found the hotel to still be a very good choice.  This is always a one night stop on our way to south Texas so we haven't taken advantage of the amenities except for the free Wi-fi, but it's very convenient on and off the interstate.  A great value for the money.  We'll stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r116090169-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>116090169</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>This hotel is great! It is very stylish and swanky. I love how there is a concession store and free breakfast every day. The workout room and pool are clean and very nice. Overall, I would recommend this hotel to a family or a businessman. It's great!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This hotel is great! It is very stylish and swanky. I love how there is a concession store and free breakfast every day. The workout room and pool are clean and very nice. Overall, I would recommend this hotel to a family or a businessman. It's great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r114771982-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>114771982</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Still the best....</t>
+  </si>
+  <si>
+    <t>I'm currently in the middle of a ten day stay at this hotel, this is my fifth time staying here, and every stay has been at least one week or more.  
+I first stayed here Labor Day weekend 09, when it first opened, and the hotel still smells like it did back then, the grounds and property inside and out still look brand new.  There are issues with a lot of kids running up and down the halls and causing noise, but a simple call to the front desk will solve this issue.  
+Every employee at this location are the greatest.  Never have experienced one that hasn't smiled or hasn't met or exceeding my requests.  
+The bathroom equipment is all made by Delta/Kohler.. which is impressive.  Big walk in showers.  Huge 37 inch LG brand HDTVs with a nice selection of HD programming, including all local Houston networks (KHOU CBS, KTRK ABC, KPRC NBC, KRIV FOX) in HD.  Alarm clocks are iHome brand, so you can dock your iPhone or iPod on it and charge it while playing your music.  
+The only complaint I have is that some vandals have carved vulgar things into the elevator walls, it is really sad that a nice hotel such as this has had that kind of vandalism after less than two years of being built.  Some people simply have no respect.  This could easily be covered up or painted over with a silverish...I'm currently in the middle of a ten day stay at this hotel, this is my fifth time staying here, and every stay has been at least one week or more.  I first stayed here Labor Day weekend 09, when it first opened, and the hotel still smells like it did back then, the grounds and property inside and out still look brand new.  There are issues with a lot of kids running up and down the halls and causing noise, but a simple call to the front desk will solve this issue.  Every employee at this location are the greatest.  Never have experienced one that hasn't smiled or hasn't met or exceeding my requests.  The bathroom equipment is all made by Delta/Kohler.. which is impressive.  Big walk in showers.  Huge 37 inch LG brand HDTVs with a nice selection of HD programming, including all local Houston networks (KHOU CBS, KTRK ABC, KPRC NBC, KRIV FOX) in HD.  Alarm clocks are iHome brand, so you can dock your iPhone or iPod on it and charge it while playing your music.  The only complaint I have is that some vandals have carved vulgar things into the elevator walls, it is really sad that a nice hotel such as this has had that kind of vandalism after less than two years of being built.  Some people simply have no respect.  This could easily be covered up or painted over with a silverish colored paint.  Overall, still one of the greatest hotels I've stayed in, if not the greatest after factoring in the good rate I enjoy from staying here.  This hotel and the Hyatt Place by Bush Airport in North Houston are two of my favorites... don't pass this place up if you have business in Sugar Land, Southwest Houston, Rosenberg, or Richmond.  Staying seven days or more is very economical at 69 bucks a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm currently in the middle of a ten day stay at this hotel, this is my fifth time staying here, and every stay has been at least one week or more.  
+I first stayed here Labor Day weekend 09, when it first opened, and the hotel still smells like it did back then, the grounds and property inside and out still look brand new.  There are issues with a lot of kids running up and down the halls and causing noise, but a simple call to the front desk will solve this issue.  
+Every employee at this location are the greatest.  Never have experienced one that hasn't smiled or hasn't met or exceeding my requests.  
+The bathroom equipment is all made by Delta/Kohler.. which is impressive.  Big walk in showers.  Huge 37 inch LG brand HDTVs with a nice selection of HD programming, including all local Houston networks (KHOU CBS, KTRK ABC, KPRC NBC, KRIV FOX) in HD.  Alarm clocks are iHome brand, so you can dock your iPhone or iPod on it and charge it while playing your music.  
+The only complaint I have is that some vandals have carved vulgar things into the elevator walls, it is really sad that a nice hotel such as this has had that kind of vandalism after less than two years of being built.  Some people simply have no respect.  This could easily be covered up or painted over with a silverish...I'm currently in the middle of a ten day stay at this hotel, this is my fifth time staying here, and every stay has been at least one week or more.  I first stayed here Labor Day weekend 09, when it first opened, and the hotel still smells like it did back then, the grounds and property inside and out still look brand new.  There are issues with a lot of kids running up and down the halls and causing noise, but a simple call to the front desk will solve this issue.  Every employee at this location are the greatest.  Never have experienced one that hasn't smiled or hasn't met or exceeding my requests.  The bathroom equipment is all made by Delta/Kohler.. which is impressive.  Big walk in showers.  Huge 37 inch LG brand HDTVs with a nice selection of HD programming, including all local Houston networks (KHOU CBS, KTRK ABC, KPRC NBC, KRIV FOX) in HD.  Alarm clocks are iHome brand, so you can dock your iPhone or iPod on it and charge it while playing your music.  The only complaint I have is that some vandals have carved vulgar things into the elevator walls, it is really sad that a nice hotel such as this has had that kind of vandalism after less than two years of being built.  Some people simply have no respect.  This could easily be covered up or painted over with a silverish colored paint.  Overall, still one of the greatest hotels I've stayed in, if not the greatest after factoring in the good rate I enjoy from staying here.  This hotel and the Hyatt Place by Bush Airport in North Houston are two of my favorites... don't pass this place up if you have business in Sugar Land, Southwest Houston, Rosenberg, or Richmond.  Staying seven days or more is very economical at 69 bucks a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r113557798-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>113557798</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 5 nights and were more than happy with SpringHill Suites.  Everyone was more than accommodating, even letting us check in 8 hours early after a 20 hour drive.  The room was very clean and spacious.  The bed was incredibly comfortable and, unlike other reviewers, the trains were not an issue.  The breakfast was a great start to the day.  We will definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 5 nights and were more than happy with SpringHill Suites.  Everyone was more than accommodating, even letting us check in 8 hours early after a 20 hour drive.  The room was very clean and spacious.  The bed was incredibly comfortable and, unlike other reviewers, the trains were not an issue.  The breakfast was a great start to the day.  We will definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r74033301-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>74033301</t>
+  </si>
+  <si>
+    <t>08/06/2010</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights and had an awesome rate for what we got.  Our room was very clean, nicely decorated and very roomy.  Check-in and check-out were a breeze.  We enjoyed the breakfast that consisted of pastries, eggs, sausage, fruit, cereals, yogurt, waffles, coffee, milk and juices.  The location is right off of the highway, which is conventietly located to many restaurants and stores at Brazos Towncenter.  It's at least a 30 minute drive into the city, but it's well worth the drive to stay in a nice place.  We enjoyed the pool-pretty much had the pool to ourselves! The staff was very friendly--I have only positive comments about this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights and had an awesome rate for what we got.  Our room was very clean, nicely decorated and very roomy.  Check-in and check-out were a breeze.  We enjoyed the breakfast that consisted of pastries, eggs, sausage, fruit, cereals, yogurt, waffles, coffee, milk and juices.  The location is right off of the highway, which is conventietly located to many restaurants and stores at Brazos Towncenter.  It's at least a 30 minute drive into the city, but it's well worth the drive to stay in a nice place.  We enjoyed the pool-pretty much had the pool to ourselves! The staff was very friendly--I have only positive comments about this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r71261762-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>71261762</t>
+  </si>
+  <si>
+    <t>07/17/2010</t>
+  </si>
+  <si>
+    <t>Felt very welcomed and felt like we were the only ones there</t>
+  </si>
+  <si>
+    <t>This hotel is great! We went to visit friends in the area and also to vacation by buying the citypass for Houston which was worth every penny. We stayed at this hotel for 6 nights.
+First of all we all loved the decor it is something different and fresh a nice change. The rooms are so huge and roomy and it was me and my husband along with our 3 kids ages 11,8 and 3 months. We brought along our portacrib so our baby would feel a familiar bed. There was plenty of room for it too. We had a sectional couch which is what my two other kids ended up sleeping on most of the time even though we had two beds. There was a small fridge and a microwave also a small coffee maker. The bathroom is neat there is one room with a sliding door with a tub/shower and a sink and counter and then another little room with a sliding door with a little sink and a toilet. We had a pretty big flat screen tv too which was nice. The desk also was comfy and the internet was really fast. The pool was outside and was perfect and warm at night and we hardly ever seen anyone in it. The only time we even noticed other people there was at breakfast time. They were pretty good at keeping it stocked at breakfast and they had...This hotel is great! We went to visit friends in the area and also to vacation by buying the citypass for Houston which was worth every penny. We stayed at this hotel for 6 nights.First of all we all loved the decor it is something different and fresh a nice change. The rooms are so huge and roomy and it was me and my husband along with our 3 kids ages 11,8 and 3 months. We brought along our portacrib so our baby would feel a familiar bed. There was plenty of room for it too. We had a sectional couch which is what my two other kids ended up sleeping on most of the time even though we had two beds. There was a small fridge and a microwave also a small coffee maker. The bathroom is neat there is one room with a sliding door with a tub/shower and a sink and counter and then another little room with a sliding door with a little sink and a toilet. We had a pretty big flat screen tv too which was nice. The desk also was comfy and the internet was really fast. The pool was outside and was perfect and warm at night and we hardly ever seen anyone in it. The only time we even noticed other people there was at breakfast time. They were pretty good at keeping it stocked at breakfast and they had containers to take it to go. The usual fare for breakfast waffles, bagels, muffins, juice, milk, cereal, yogurt and oatmeal that was pretty good. Very sufficient for breakfast. It isn't super close to the attractions we were going to but it was worth being that far for what we payed for the room. We got it at 59 a night cause we stayed more than 4 nights. Worth every penny. I have payed much more for much less. LOVE IT! This is our new home away from home when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>This hotel is great! We went to visit friends in the area and also to vacation by buying the citypass for Houston which was worth every penny. We stayed at this hotel for 6 nights.
+First of all we all loved the decor it is something different and fresh a nice change. The rooms are so huge and roomy and it was me and my husband along with our 3 kids ages 11,8 and 3 months. We brought along our portacrib so our baby would feel a familiar bed. There was plenty of room for it too. We had a sectional couch which is what my two other kids ended up sleeping on most of the time even though we had two beds. There was a small fridge and a microwave also a small coffee maker. The bathroom is neat there is one room with a sliding door with a tub/shower and a sink and counter and then another little room with a sliding door with a little sink and a toilet. We had a pretty big flat screen tv too which was nice. The desk also was comfy and the internet was really fast. The pool was outside and was perfect and warm at night and we hardly ever seen anyone in it. The only time we even noticed other people there was at breakfast time. They were pretty good at keeping it stocked at breakfast and they had...This hotel is great! We went to visit friends in the area and also to vacation by buying the citypass for Houston which was worth every penny. We stayed at this hotel for 6 nights.First of all we all loved the decor it is something different and fresh a nice change. The rooms are so huge and roomy and it was me and my husband along with our 3 kids ages 11,8 and 3 months. We brought along our portacrib so our baby would feel a familiar bed. There was plenty of room for it too. We had a sectional couch which is what my two other kids ended up sleeping on most of the time even though we had two beds. There was a small fridge and a microwave also a small coffee maker. The bathroom is neat there is one room with a sliding door with a tub/shower and a sink and counter and then another little room with a sliding door with a little sink and a toilet. We had a pretty big flat screen tv too which was nice. The desk also was comfy and the internet was really fast. The pool was outside and was perfect and warm at night and we hardly ever seen anyone in it. The only time we even noticed other people there was at breakfast time. They were pretty good at keeping it stocked at breakfast and they had containers to take it to go. The usual fare for breakfast waffles, bagels, muffins, juice, milk, cereal, yogurt and oatmeal that was pretty good. Very sufficient for breakfast. It isn't super close to the attractions we were going to but it was worth being that far for what we payed for the room. We got it at 59 a night cause we stayed more than 4 nights. Worth every penny. I have payed much more for much less. LOVE IT! This is our new home away from home when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1485920-r65533237-SpringHill_Suites_Houston_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>65533237</t>
+  </si>
+  <si>
+    <t>05/27/2010</t>
+  </si>
+  <si>
+    <t>Great hotel!  Luxury at a bargain.</t>
+  </si>
+  <si>
+    <t>My wife and I were in the area for our honeymoon, we stayed here for ten nights.  She had never been to a beach so this was a central location to all the areas we were going to.  This wasn't my first time staying here; I stayed with family on Labor Day weekend right after the hotel opened, and I loved it.  So, when we came back to the area for Thanksgiving, this was the destination.  And my wife loved the place this last time I was there.  37' HD televisions with plenty of HD channel selection, beds were like sleeping on a cloud.  I loved the countertops... they sparkled..almost  like they had crystal in them.  Sectional couch was comfortable.  Every time I'm in the Houston area, I drive past the expensive hotels in the city, and find myself in Rosenberg at this well kept secret.  No more than six or seven other guests were staying at the hotel at one time the whole time we were there.  TIP - make your reservation directly on marriott's website.  If you're staying more than four nights, the price of a room is only $59.00!!  Can't beat that.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>My wife and I were in the area for our honeymoon, we stayed here for ten nights.  She had never been to a beach so this was a central location to all the areas we were going to.  This wasn't my first time staying here; I stayed with family on Labor Day weekend right after the hotel opened, and I loved it.  So, when we came back to the area for Thanksgiving, this was the destination.  And my wife loved the place this last time I was there.  37' HD televisions with plenty of HD channel selection, beds were like sleeping on a cloud.  I loved the countertops... they sparkled..almost  like they had crystal in them.  Sectional couch was comfortable.  Every time I'm in the Houston area, I drive past the expensive hotels in the city, and find myself in Rosenberg at this well kept secret.  No more than six or seven other guests were staying at the hotel at one time the whole time we were there.  TIP - make your reservation directly on marriott's website.  If you're staying more than four nights, the price of a room is only $59.00!!  Can't beat that.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2925,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2957,6918 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>178</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>327</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>328</v>
+      </c>
+      <c r="X41" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" t="s">
+        <v>334</v>
+      </c>
+      <c r="L42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>337</v>
+      </c>
+      <c r="X42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>337</v>
+      </c>
+      <c r="X43" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>347</v>
+      </c>
+      <c r="J44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K44" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s">
+        <v>350</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>352</v>
+      </c>
+      <c r="X44" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>327</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>352</v>
+      </c>
+      <c r="X46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s">
+        <v>380</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>373</v>
+      </c>
+      <c r="X48" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s">
+        <v>386</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>387</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>373</v>
+      </c>
+      <c r="X49" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>395</v>
+      </c>
+      <c r="X51" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>408</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>395</v>
+      </c>
+      <c r="X52" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>411</v>
+      </c>
+      <c r="J53" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" t="s">
+        <v>413</v>
+      </c>
+      <c r="L53" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>415</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>416</v>
+      </c>
+      <c r="X53" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>416</v>
+      </c>
+      <c r="X54" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>415</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>416</v>
+      </c>
+      <c r="X55" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s">
+        <v>435</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>408</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>436</v>
+      </c>
+      <c r="X56" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>445</v>
+      </c>
+      <c r="X57" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>449</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L58" t="s">
+        <v>452</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>453</v>
+      </c>
+      <c r="X58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>461</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>462</v>
+      </c>
+      <c r="X59" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>471</v>
+      </c>
+      <c r="X60" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K61" t="s">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>479</v>
+      </c>
+      <c r="X61" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K62" t="s">
+        <v>485</v>
+      </c>
+      <c r="L62" t="s">
+        <v>486</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>487</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>496</v>
+      </c>
+      <c r="X63" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>487</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>496</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+      <c r="J65" t="s">
+        <v>507</v>
+      </c>
+      <c r="K65" t="s">
+        <v>508</v>
+      </c>
+      <c r="L65" t="s">
+        <v>509</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>510</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>511</v>
+      </c>
+      <c r="X65" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>514</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>515</v>
+      </c>
+      <c r="J66" t="s">
+        <v>516</v>
+      </c>
+      <c r="K66" t="s">
+        <v>517</v>
+      </c>
+      <c r="L66" t="s">
+        <v>518</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>519</v>
+      </c>
+      <c r="O66" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>511</v>
+      </c>
+      <c r="X66" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>521</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J67" t="s">
+        <v>523</v>
+      </c>
+      <c r="K67" t="s">
+        <v>524</v>
+      </c>
+      <c r="L67" t="s">
+        <v>525</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>519</v>
+      </c>
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>526</v>
+      </c>
+      <c r="X67" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>529</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>530</v>
+      </c>
+      <c r="J68" t="s">
+        <v>531</v>
+      </c>
+      <c r="K68" t="s">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s">
+        <v>533</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>534</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>535</v>
+      </c>
+      <c r="X68" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>539</v>
+      </c>
+      <c r="J69" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s">
+        <v>542</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>543</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>544</v>
+      </c>
+      <c r="X69" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>547</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>548</v>
+      </c>
+      <c r="J70" t="s">
+        <v>549</v>
+      </c>
+      <c r="K70" t="s">
+        <v>550</v>
+      </c>
+      <c r="L70" t="s">
+        <v>551</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>552</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>553</v>
+      </c>
+      <c r="X70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>556</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>557</v>
+      </c>
+      <c r="J71" t="s">
+        <v>558</v>
+      </c>
+      <c r="K71" t="s">
+        <v>559</v>
+      </c>
+      <c r="L71" t="s">
+        <v>560</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>561</v>
+      </c>
+      <c r="X71" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>564</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>565</v>
+      </c>
+      <c r="J72" t="s">
+        <v>566</v>
+      </c>
+      <c r="K72" t="s">
+        <v>567</v>
+      </c>
+      <c r="L72" t="s">
+        <v>568</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>534</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>561</v>
+      </c>
+      <c r="X72" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>571</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>534</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>561</v>
+      </c>
+      <c r="X73" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J74" t="s">
+        <v>578</v>
+      </c>
+      <c r="K74" t="s">
+        <v>579</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>582</v>
+      </c>
+      <c r="X74" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s">
+        <v>589</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>590</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>591</v>
+      </c>
+      <c r="X75" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>594</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" t="s">
+        <v>596</v>
+      </c>
+      <c r="K76" t="s">
+        <v>597</v>
+      </c>
+      <c r="L76" t="s">
+        <v>598</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>552</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>599</v>
+      </c>
+      <c r="X76" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>552</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>607</v>
+      </c>
+      <c r="X77" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>610</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>611</v>
+      </c>
+      <c r="J78" t="s">
+        <v>612</v>
+      </c>
+      <c r="K78" t="s">
+        <v>613</v>
+      </c>
+      <c r="L78" t="s">
+        <v>614</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>615</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>607</v>
+      </c>
+      <c r="X78" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>617</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>618</v>
+      </c>
+      <c r="J79" t="s">
+        <v>619</v>
+      </c>
+      <c r="K79" t="s">
+        <v>620</v>
+      </c>
+      <c r="L79" t="s">
+        <v>621</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>615</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>622</v>
+      </c>
+      <c r="X79" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s">
+        <v>627</v>
+      </c>
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+      <c r="L80" t="s">
+        <v>629</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>630</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>631</v>
+      </c>
+      <c r="X80" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>634</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>635</v>
+      </c>
+      <c r="J81" t="s">
+        <v>636</v>
+      </c>
+      <c r="K81" t="s">
+        <v>637</v>
+      </c>
+      <c r="L81" t="s">
+        <v>638</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>630</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>631</v>
+      </c>
+      <c r="X81" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>94</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>631</v>
+      </c>
+      <c r="X82" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>648</v>
+      </c>
+      <c r="J83" t="s">
+        <v>649</v>
+      </c>
+      <c r="K83" t="s">
+        <v>650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>652</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>631</v>
+      </c>
+      <c r="X83" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>654</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>655</v>
+      </c>
+      <c r="J84" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" t="s">
+        <v>657</v>
+      </c>
+      <c r="L84" t="s">
+        <v>658</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>659</v>
+      </c>
+      <c r="O84" t="s">
+        <v>327</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>526</v>
+      </c>
+      <c r="X84" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>661</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>662</v>
+      </c>
+      <c r="J85" t="s">
+        <v>663</v>
+      </c>
+      <c r="K85" t="s">
+        <v>664</v>
+      </c>
+      <c r="L85" t="s">
+        <v>665</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>666</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>667</v>
+      </c>
+      <c r="X85" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>670</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>671</v>
+      </c>
+      <c r="J86" t="s">
+        <v>672</v>
+      </c>
+      <c r="K86" t="s">
+        <v>673</v>
+      </c>
+      <c r="L86" t="s">
+        <v>674</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>675</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>676</v>
+      </c>
+      <c r="X86" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>679</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>680</v>
+      </c>
+      <c r="J87" t="s">
+        <v>681</v>
+      </c>
+      <c r="K87" t="s">
+        <v>682</v>
+      </c>
+      <c r="L87" t="s">
+        <v>683</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>675</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>676</v>
+      </c>
+      <c r="X87" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>686</v>
+      </c>
+      <c r="J88" t="s">
+        <v>681</v>
+      </c>
+      <c r="K88" t="s">
+        <v>687</v>
+      </c>
+      <c r="L88" t="s">
+        <v>688</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>675</v>
+      </c>
+      <c r="O88" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>676</v>
+      </c>
+      <c r="X88" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>690</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>691</v>
+      </c>
+      <c r="J89" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" t="s">
+        <v>693</v>
+      </c>
+      <c r="L89" t="s">
+        <v>694</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>695</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>676</v>
+      </c>
+      <c r="X89" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>697</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>698</v>
+      </c>
+      <c r="J90" t="s">
+        <v>699</v>
+      </c>
+      <c r="K90" t="s">
+        <v>700</v>
+      </c>
+      <c r="L90" t="s">
+        <v>701</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>702</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>703</v>
+      </c>
+      <c r="X90" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>706</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>707</v>
+      </c>
+      <c r="J91" t="s">
+        <v>708</v>
+      </c>
+      <c r="K91" t="s">
+        <v>709</v>
+      </c>
+      <c r="L91" t="s">
+        <v>710</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>711</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>712</v>
+      </c>
+      <c r="X91" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>718</v>
+      </c>
+      <c r="L92" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>607</v>
+      </c>
+      <c r="X92" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>607</v>
+      </c>
+      <c r="X93" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>728</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>729</v>
+      </c>
+      <c r="J94" t="s">
+        <v>730</v>
+      </c>
+      <c r="K94" t="s">
+        <v>731</v>
+      </c>
+      <c r="L94" t="s">
+        <v>732</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>720</v>
+      </c>
+      <c r="O94" t="s">
+        <v>327</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>607</v>
+      </c>
+      <c r="X94" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>734</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>735</v>
+      </c>
+      <c r="J95" t="s">
+        <v>736</v>
+      </c>
+      <c r="K95" t="s">
+        <v>737</v>
+      </c>
+      <c r="L95" t="s">
+        <v>738</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>739</v>
+      </c>
+      <c r="O95" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>607</v>
+      </c>
+      <c r="X95" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>741</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>742</v>
+      </c>
+      <c r="J96" t="s">
+        <v>743</v>
+      </c>
+      <c r="K96" t="s">
+        <v>744</v>
+      </c>
+      <c r="L96" t="s">
+        <v>745</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>746</v>
+      </c>
+      <c r="O96" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>607</v>
+      </c>
+      <c r="X96" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>748</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>749</v>
+      </c>
+      <c r="J97" t="s">
+        <v>750</v>
+      </c>
+      <c r="K97" t="s">
+        <v>751</v>
+      </c>
+      <c r="L97" t="s">
+        <v>752</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>753</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>607</v>
+      </c>
+      <c r="X97" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>755</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>756</v>
+      </c>
+      <c r="J98" t="s">
+        <v>757</v>
+      </c>
+      <c r="K98" t="s">
+        <v>758</v>
+      </c>
+      <c r="L98" t="s">
+        <v>759</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>760</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>607</v>
+      </c>
+      <c r="X98" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>762</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>763</v>
+      </c>
+      <c r="J99" t="s">
+        <v>764</v>
+      </c>
+      <c r="K99" t="s">
+        <v>765</v>
+      </c>
+      <c r="L99" t="s">
+        <v>766</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>767</v>
+      </c>
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>526</v>
+      </c>
+      <c r="X99" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>769</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>770</v>
+      </c>
+      <c r="J100" t="s">
+        <v>771</v>
+      </c>
+      <c r="K100" t="s">
+        <v>772</v>
+      </c>
+      <c r="L100" t="s">
+        <v>773</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>774</v>
+      </c>
+      <c r="O100" t="s">
+        <v>94</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>526</v>
+      </c>
+      <c r="X100" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>776</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>777</v>
+      </c>
+      <c r="J101" t="s">
+        <v>778</v>
+      </c>
+      <c r="K101" t="s">
+        <v>779</v>
+      </c>
+      <c r="L101" t="s">
+        <v>780</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>781</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>526</v>
+      </c>
+      <c r="X101" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>783</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>784</v>
+      </c>
+      <c r="J102" t="s">
+        <v>785</v>
+      </c>
+      <c r="K102" t="s">
+        <v>786</v>
+      </c>
+      <c r="L102" t="s">
+        <v>787</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>535</v>
+      </c>
+      <c r="X102" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>789</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>790</v>
+      </c>
+      <c r="J103" t="s">
+        <v>791</v>
+      </c>
+      <c r="K103" t="s">
+        <v>485</v>
+      </c>
+      <c r="L103" t="s">
+        <v>792</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>793</v>
+      </c>
+      <c r="O103" t="s">
+        <v>94</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>535</v>
+      </c>
+      <c r="X103" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>795</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>796</v>
+      </c>
+      <c r="J104" t="s">
+        <v>797</v>
+      </c>
+      <c r="K104" t="s">
+        <v>798</v>
+      </c>
+      <c r="L104" t="s">
+        <v>799</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>800</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>535</v>
+      </c>
+      <c r="X104" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>802</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>803</v>
+      </c>
+      <c r="J105" t="s">
+        <v>804</v>
+      </c>
+      <c r="K105" t="s">
+        <v>805</v>
+      </c>
+      <c r="L105" t="s">
+        <v>806</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>807</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>535</v>
+      </c>
+      <c r="X105" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59278</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>809</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>810</v>
+      </c>
+      <c r="J106" t="s">
+        <v>811</v>
+      </c>
+      <c r="K106" t="s">
+        <v>812</v>
+      </c>
+      <c r="L106" t="s">
+        <v>813</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>814</v>
+      </c>
+      <c r="O106" t="s">
+        <v>94</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>535</v>
+      </c>
+      <c r="X106" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>
